--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_7_26.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_7_26.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>874848.4830362876</v>
+        <v>898292.4081321842</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13251674.51004885</v>
+        <v>11857191.11602537</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2065046.85755849</v>
+        <v>698313.683076074</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7714579.08780046</v>
+        <v>8225155.112316691</v>
       </c>
     </row>
     <row r="11">
@@ -659,19 +661,19 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
-        <v>115.5390044870162</v>
+        <v>91.23698399075077</v>
       </c>
       <c r="D2" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -814,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>145.7632777872806</v>
+        <v>10.97980345519848</v>
       </c>
       <c r="D4" t="n">
         <v>161.683605144497</v>
@@ -826,16 +828,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,7 +867,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
@@ -874,7 +876,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
@@ -893,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>170.2553066834604</v>
       </c>
       <c r="C5" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
-        <v>71.21229122917212</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -959,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="6">
@@ -1051,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>17.74049172938803</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
         <v>161.683605144497</v>
@@ -1072,7 +1074,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>89.92007401343595</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
-        <v>37.57894091842041</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
         <v>420.8729399924937</v>
@@ -1151,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1193,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>64.67048341682457</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="9">
@@ -1303,13 +1305,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>11.12043047005062</v>
       </c>
       <c r="U10" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>77.86122520429248</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
         <v>224.0793406271554</v>
@@ -1373,22 +1375,22 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>311.0876633699169</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>176.1425109206425</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
         <v>218.7163152458132</v>
@@ -1427,10 +1429,10 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
@@ -1531,22 +1533,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>51.58543740429418</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,16 +1578,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>115.1055716303386</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1613,19 +1615,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>56.11966808271616</v>
+        <v>395.6472617351042</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
         <v>255.7713603095518</v>
@@ -1670,7 +1672,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -1768,22 +1770,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>98.15366458399269</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,16 +1815,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -2002,10 +2004,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>57.29215110549234</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
         <v>164.546123788675</v>
@@ -2014,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>116.8778153089328</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2052,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
@@ -2065,10 +2067,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2101,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2141,7 +2143,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>392.4274362026577</v>
       </c>
       <c r="X20" t="n">
         <v>407.6027988439302</v>
@@ -2242,22 +2244,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>51.58543740429417</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
@@ -2476,16 +2478,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
         <v>164.5944000087102</v>
@@ -2521,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>154.8833258811978</v>
       </c>
       <c r="X25" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>40.19402712855965</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2710,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>164.5944000087102</v>
@@ -2761,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>219.121954772706</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>154.8833258811978</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855919</v>
       </c>
       <c r="T29" t="n">
         <v>218.7163152458132</v>
@@ -2950,25 +2952,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>57.29215110549318</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,16 +3000,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
@@ -3016,7 +3018,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>61.80230824279523</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -3190,19 +3192,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>98.15366458399308</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>126.2358084348496</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
         <v>277.3826040146988</v>
@@ -3436,13 +3438,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>11.12043047005107</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3481,7 +3483,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>61.80230824279523</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3490,7 +3492,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>51.58543740429417</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>71.04375511693071</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -3752,13 +3754,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>214.0679051944713</v>
       </c>
       <c r="U41" t="n">
         <v>255.7713603095518</v>
@@ -3800,10 +3802,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>26.82993383175153</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -3898,25 +3900,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>51.58543740429393</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3952,19 +3954,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>93.30762551611231</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -3989,13 +3991,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>299.6307676069974</v>
       </c>
       <c r="Y44" t="n">
-        <v>335.3072186263389</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4138,22 +4140,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399244</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,19 +4185,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>154.8833258811978</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1874.83396633247</v>
+        <v>638.1652587604844</v>
       </c>
       <c r="C2" t="n">
-        <v>1758.12790119407</v>
+        <v>546.0066890728574</v>
       </c>
       <c r="D2" t="n">
-        <v>1334.83528037907</v>
+        <v>122.7140682578577</v>
       </c>
       <c r="E2" t="n">
-        <v>908.8583405269275</v>
+        <v>100.7775324461193</v>
       </c>
       <c r="F2" t="n">
-        <v>483.7341587163277</v>
+        <v>79.69375467592363</v>
       </c>
       <c r="G2" t="n">
         <v>79.39509630577632</v>
@@ -4328,52 +4330,52 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J2" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K2" t="n">
-        <v>957.7672188505812</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L2" t="n">
-        <v>1508.432753835019</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M2" t="n">
-        <v>1508.432753835019</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="N2" t="n">
-        <v>1508.432753835019</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="O2" t="n">
-        <v>1508.432753835019</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P2" t="n">
-        <v>1651.269438076291</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q2" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R2" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T2" t="n">
-        <v>1899.61838738015</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U2" t="n">
-        <v>1899.61838738015</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V2" t="n">
-        <v>1899.61838738015</v>
+        <v>1867.421837588626</v>
       </c>
       <c r="W2" t="n">
-        <v>1899.61838738015</v>
+        <v>1471.030487888973</v>
       </c>
       <c r="X2" t="n">
-        <v>1891.938792588301</v>
+        <v>1059.31048905672</v>
       </c>
       <c r="Y2" t="n">
-        <v>1890.641926583596</v>
+        <v>653.9732190116105</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>983.3471129133217</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C3" t="n">
-        <v>865.8412094308264</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D3" t="n">
-        <v>762.0012509461114</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E3" t="n">
-        <v>657.2993172190487</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F3" t="n">
-        <v>563.6534869019529</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G3" t="n">
-        <v>469.5997151195569</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H3" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I3" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J3" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K3" t="n">
-        <v>966.8891568663047</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L3" t="n">
-        <v>1517.554691850743</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M3" t="n">
-        <v>2068.220226835181</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N3" t="n">
-        <v>2142.891942377673</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O3" t="n">
-        <v>2142.891942377673</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P3" t="n">
-        <v>2142.891942377673</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q3" t="n">
-        <v>2142.891942377673</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R3" t="n">
-        <v>2224.911252462377</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S3" t="n">
-        <v>2143.587005023631</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T3" t="n">
-        <v>2001.707069321309</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U3" t="n">
-        <v>1816.938873240946</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V3" t="n">
-        <v>1611.965734380212</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W3" t="n">
-        <v>1415.444357213429</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X3" t="n">
-        <v>1251.967010980092</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y3" t="n">
-        <v>1112.274122333384</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>665.0551063900352</v>
+        <v>966.7974950132069</v>
       </c>
       <c r="C4" t="n">
-        <v>517.8194722614689</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D4" t="n">
-        <v>354.5026993882396</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E4" t="n">
-        <v>188.2944935410931</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F4" t="n">
-        <v>188.2944935410931</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G4" t="n">
-        <v>188.2944935410931</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H4" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I4" t="n">
         <v>44.49822504924753</v>
@@ -4513,25 +4515,25 @@
         <v>2177.87263914955</v>
       </c>
       <c r="S4" t="n">
-        <v>2177.87263914955</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="T4" t="n">
-        <v>1934.53329137545</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="U4" t="n">
-        <v>1654.348842875754</v>
+        <v>1484.213795394889</v>
       </c>
       <c r="V4" t="n">
-        <v>1372.637375483783</v>
+        <v>1484.213795394889</v>
       </c>
       <c r="W4" t="n">
-        <v>1097.784971656296</v>
+        <v>1209.361391567402</v>
       </c>
       <c r="X4" t="n">
-        <v>855.2210751021008</v>
+        <v>966.7974950132069</v>
       </c>
       <c r="Y4" t="n">
-        <v>855.2210751021008</v>
+        <v>966.7974950132069</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>988.0056192934842</v>
+        <v>2043.959734409802</v>
       </c>
       <c r="C5" t="n">
-        <v>561.1048893067843</v>
+        <v>1617.059004423102</v>
       </c>
       <c r="D5" t="n">
-        <v>137.8122684917846</v>
+        <v>1597.806787648507</v>
       </c>
       <c r="E5" t="n">
-        <v>65.88066118959054</v>
+        <v>1171.829847796364</v>
       </c>
       <c r="F5" t="n">
-        <v>44.79688341939484</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G5" t="n">
-        <v>44.49822504924753</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H5" t="n">
         <v>44.49822504924753</v>
@@ -4565,28 +4567,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L5" t="n">
-        <v>44.49822504924753</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M5" t="n">
-        <v>595.1637600336857</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N5" t="n">
-        <v>1145.829295018124</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="O5" t="n">
-        <v>1696.494830002562</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="P5" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q5" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462377</v>
@@ -4607,10 +4609,10 @@
         <v>2224.911252462377</v>
       </c>
       <c r="X5" t="n">
-        <v>1813.191253630124</v>
+        <v>2217.231657670528</v>
       </c>
       <c r="Y5" t="n">
-        <v>1407.853983585014</v>
+        <v>2215.934791665823</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4646,25 @@
         <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>323.6423572907505</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K6" t="n">
-        <v>323.6423572907505</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="L6" t="n">
-        <v>756.3555336978366</v>
+        <v>119.1699405917395</v>
       </c>
       <c r="M6" t="n">
-        <v>1307.021068682275</v>
+        <v>119.1699405917395</v>
       </c>
       <c r="N6" t="n">
-        <v>1307.021068682275</v>
+        <v>669.8354755761777</v>
       </c>
       <c r="O6" t="n">
-        <v>1307.021068682275</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="P6" t="n">
-        <v>1307.021068682275</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q6" t="n">
         <v>1771.166545545054</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>855.9382161926764</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C7" t="n">
-        <v>855.9382161926764</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D7" t="n">
-        <v>692.6214433194471</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E7" t="n">
-        <v>526.4132374723006</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F7" t="n">
-        <v>354.551463246861</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G7" t="n">
-        <v>188.2944935410931</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H7" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924753</v>
@@ -4744,31 +4746,31 @@
         <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S7" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T7" t="n">
-        <v>1934.533291375449</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U7" t="n">
-        <v>1654.348842875753</v>
+        <v>1944.726803962681</v>
       </c>
       <c r="V7" t="n">
-        <v>1563.520485286424</v>
+        <v>1663.01533657071</v>
       </c>
       <c r="W7" t="n">
-        <v>1288.668081458937</v>
+        <v>1388.162932743223</v>
       </c>
       <c r="X7" t="n">
-        <v>1046.104184904742</v>
+        <v>1145.599036189028</v>
       </c>
       <c r="Y7" t="n">
-        <v>1046.104184904742</v>
+        <v>1145.599036189028</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>988.0056192934842</v>
+        <v>1746.091355883837</v>
       </c>
       <c r="C8" t="n">
-        <v>950.0470931132616</v>
+        <v>1723.231029937541</v>
       </c>
       <c r="D8" t="n">
-        <v>930.7948763386659</v>
+        <v>1299.938409122541</v>
       </c>
       <c r="E8" t="n">
-        <v>908.8583405269275</v>
+        <v>873.9614692703988</v>
       </c>
       <c r="F8" t="n">
-        <v>483.7341587163277</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G8" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H8" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I8" t="n">
         <v>44.49822504924753</v>
@@ -4808,7 +4810,7 @@
         <v>407.101683866143</v>
       </c>
       <c r="L8" t="n">
-        <v>455.3583126271592</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M8" t="n">
         <v>1006.023847611597</v>
@@ -4841,13 +4843,13 @@
         <v>2224.911252462377</v>
       </c>
       <c r="W8" t="n">
-        <v>2224.911252462377</v>
+        <v>1828.519902762723</v>
       </c>
       <c r="X8" t="n">
-        <v>1813.191253630124</v>
+        <v>1763.196182139668</v>
       </c>
       <c r="Y8" t="n">
-        <v>1407.853983585014</v>
+        <v>1761.899316134963</v>
       </c>
     </row>
     <row r="9">
@@ -4881,28 +4883,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>44.49822504924753</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K9" t="n">
-        <v>595.1637600336857</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="L9" t="n">
-        <v>1145.829295018124</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="M9" t="n">
-        <v>1696.494830002562</v>
+        <v>669.8354755761777</v>
       </c>
       <c r="N9" t="n">
-        <v>1853.185855629757</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="O9" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="P9" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q9" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1127.679347573484</v>
+        <v>717.8575411161469</v>
       </c>
       <c r="C10" t="n">
-        <v>955.7067844524004</v>
+        <v>545.8849779950629</v>
       </c>
       <c r="D10" t="n">
-        <v>792.3900115791711</v>
+        <v>382.5682051218336</v>
       </c>
       <c r="E10" t="n">
-        <v>626.1818057320246</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F10" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G10" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H10" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I10" t="n">
         <v>44.49822504924753</v>
@@ -4984,28 +4986,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S10" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T10" t="n">
-        <v>2177.872639149549</v>
+        <v>2213.678494411819</v>
       </c>
       <c r="U10" t="n">
-        <v>1897.688190649853</v>
+        <v>1933.494045912124</v>
       </c>
       <c r="V10" t="n">
-        <v>1819.040488423295</v>
+        <v>1651.782578520152</v>
       </c>
       <c r="W10" t="n">
-        <v>1544.188084595808</v>
+        <v>1376.930174692665</v>
       </c>
       <c r="X10" t="n">
-        <v>1544.188084595808</v>
+        <v>1134.366278138471</v>
       </c>
       <c r="Y10" t="n">
-        <v>1317.84531628555</v>
+        <v>908.0235098282126</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1517.921411311761</v>
+        <v>2429.413071721394</v>
       </c>
       <c r="C11" t="n">
-        <v>1091.020681325061</v>
+        <v>2002.512341734694</v>
       </c>
       <c r="D11" t="n">
-        <v>667.7280605100611</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E11" t="n">
-        <v>667.7280605100611</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F11" t="n">
-        <v>242.6038786994613</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G11" t="n">
-        <v>64.68215049679215</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H11" t="n">
-        <v>64.68215049679215</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I11" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J11" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K11" t="n">
-        <v>780.1904584722912</v>
+        <v>815.5852528544891</v>
       </c>
       <c r="L11" t="n">
-        <v>1580.632070870094</v>
+        <v>1745.210300473766</v>
       </c>
       <c r="M11" t="n">
-        <v>2381.073683267897</v>
+        <v>2749.496401892824</v>
       </c>
       <c r="N11" t="n">
-        <v>2381.073683267897</v>
+        <v>3725.747460379525</v>
       </c>
       <c r="O11" t="n">
-        <v>3116.551189957705</v>
+        <v>3725.747460379525</v>
       </c>
       <c r="P11" t="n">
-        <v>3116.551189957705</v>
+        <v>4434.026739537452</v>
       </c>
       <c r="Q11" t="n">
-        <v>3116.551189957705</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R11" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S11" t="n">
-        <v>3234.107524839607</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T11" t="n">
-        <v>3013.181953884241</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U11" t="n">
-        <v>2754.827044480653</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V11" t="n">
-        <v>2754.827044480653</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W11" t="n">
-        <v>2754.827044480653</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X11" t="n">
-        <v>2343.1070456484</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y11" t="n">
-        <v>1937.769775603291</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>631.8056415282474</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C12" t="n">
-        <v>514.2997380457522</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D12" t="n">
-        <v>410.4597795610372</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E12" t="n">
-        <v>305.7578458339744</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F12" t="n">
-        <v>212.1120155168786</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G12" t="n">
-        <v>118.0582437344826</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H12" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I12" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J12" t="n">
-        <v>336.3796397763832</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K12" t="n">
-        <v>693.0265871760246</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L12" t="n">
-        <v>693.0265871760246</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="M12" t="n">
-        <v>693.0265871760246</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="N12" t="n">
-        <v>693.0265871760246</v>
+        <v>1019.283297448028</v>
       </c>
       <c r="O12" t="n">
-        <v>693.0265871760246</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P12" t="n">
-        <v>1409.224304214523</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q12" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R12" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S12" t="n">
-        <v>1792.045533638556</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T12" t="n">
-        <v>1650.165597936235</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U12" t="n">
-        <v>1465.397401855871</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V12" t="n">
-        <v>1260.424262995137</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W12" t="n">
-        <v>1063.902885828355</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X12" t="n">
-        <v>900.4255395950178</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y12" t="n">
-        <v>760.7326509483102</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>288.7612160464561</v>
+        <v>1183.258067403227</v>
       </c>
       <c r="C13" t="n">
-        <v>116.7886529253721</v>
+        <v>1011.285504282143</v>
       </c>
       <c r="D13" t="n">
-        <v>64.68215049679215</v>
+        <v>847.9687314089136</v>
       </c>
       <c r="E13" t="n">
-        <v>64.68215049679215</v>
+        <v>681.7605255617672</v>
       </c>
       <c r="F13" t="n">
-        <v>64.68215049679215</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="G13" t="n">
-        <v>64.68215049679215</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H13" t="n">
-        <v>64.68215049679215</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I13" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J13" t="n">
-        <v>122.1734787209502</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K13" t="n">
-        <v>348.7010799267873</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L13" t="n">
-        <v>703.3904012212081</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M13" t="n">
-        <v>1094.576196191459</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N13" t="n">
-        <v>1472.067707067495</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O13" t="n">
-        <v>1827.495835747258</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P13" t="n">
-        <v>2118.095047669159</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q13" t="n">
-        <v>2245.09517790992</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R13" t="n">
-        <v>2198.056564597094</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S13" t="n">
-        <v>2027.921517116229</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="T13" t="n">
-        <v>1784.582169342129</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="U13" t="n">
-        <v>1504.397720842433</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="V13" t="n">
-        <v>1222.686253450462</v>
+        <v>2117.183104807232</v>
       </c>
       <c r="W13" t="n">
-        <v>947.8338496229746</v>
+        <v>1842.330700979745</v>
       </c>
       <c r="X13" t="n">
-        <v>705.2699530687797</v>
+        <v>1599.766804425551</v>
       </c>
       <c r="Y13" t="n">
-        <v>478.9271847585218</v>
+        <v>1373.424036115293</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1396.686216525977</v>
+        <v>2533.780365848253</v>
       </c>
       <c r="C14" t="n">
-        <v>969.7854865392767</v>
+        <v>2106.879635861554</v>
       </c>
       <c r="D14" t="n">
-        <v>546.492865724277</v>
+        <v>1683.587015046554</v>
       </c>
       <c r="E14" t="n">
-        <v>546.492865724277</v>
+        <v>1257.610075194411</v>
       </c>
       <c r="F14" t="n">
-        <v>121.3686839136772</v>
+        <v>832.4858933838116</v>
       </c>
       <c r="G14" t="n">
-        <v>64.68215049679215</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H14" t="n">
-        <v>64.68215049679215</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I14" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J14" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K14" t="n">
-        <v>64.68215049679215</v>
+        <v>815.5852528544891</v>
       </c>
       <c r="L14" t="n">
-        <v>865.123762894595</v>
+        <v>1469.886154735005</v>
       </c>
       <c r="M14" t="n">
-        <v>1633.224300044002</v>
+        <v>2474.172256154064</v>
       </c>
       <c r="N14" t="n">
-        <v>2433.665912441805</v>
+        <v>3450.423314640765</v>
       </c>
       <c r="O14" t="n">
-        <v>3234.107524839607</v>
+        <v>4295.567964791577</v>
       </c>
       <c r="P14" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="Q14" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R14" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S14" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="T14" t="n">
-        <v>3234.107524839607</v>
+        <v>4782.921672994137</v>
       </c>
       <c r="U14" t="n">
-        <v>2975.752615436019</v>
+        <v>4524.566763590549</v>
       </c>
       <c r="V14" t="n">
-        <v>2618.263200562269</v>
+        <v>4167.077348716799</v>
       </c>
       <c r="W14" t="n">
-        <v>2221.871850862616</v>
+        <v>3770.685999017146</v>
       </c>
       <c r="X14" t="n">
-        <v>2221.871850862616</v>
+        <v>3358.966000184893</v>
       </c>
       <c r="Y14" t="n">
-        <v>1816.534580817507</v>
+        <v>2953.628730139784</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>631.8056415282474</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C15" t="n">
-        <v>514.2997380457522</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D15" t="n">
-        <v>410.4597795610372</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E15" t="n">
-        <v>305.7578458339744</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F15" t="n">
-        <v>212.1120155168786</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G15" t="n">
-        <v>118.0582437344826</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H15" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I15" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J15" t="n">
-        <v>64.68215049679215</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="K15" t="n">
-        <v>655.1670770651317</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="L15" t="n">
-        <v>655.1670770651317</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="M15" t="n">
-        <v>655.1670770651317</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="N15" t="n">
-        <v>655.1670770651317</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="O15" t="n">
-        <v>1157.172064038804</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="P15" t="n">
-        <v>1873.369781077302</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="Q15" t="n">
-        <v>1873.369781077302</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="R15" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S15" t="n">
-        <v>1792.045533638556</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T15" t="n">
-        <v>1650.165597936235</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U15" t="n">
-        <v>1465.397401855871</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V15" t="n">
-        <v>1260.424262995137</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W15" t="n">
-        <v>1063.902885828355</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X15" t="n">
-        <v>900.4255395950178</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y15" t="n">
-        <v>760.7326509483102</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>335.7998293592829</v>
+        <v>1183.258067403227</v>
       </c>
       <c r="C16" t="n">
-        <v>163.8272662381989</v>
+        <v>1011.285504282143</v>
       </c>
       <c r="D16" t="n">
-        <v>163.8272662381989</v>
+        <v>847.9687314089136</v>
       </c>
       <c r="E16" t="n">
-        <v>64.68215049679215</v>
+        <v>681.7605255617672</v>
       </c>
       <c r="F16" t="n">
-        <v>64.68215049679215</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="G16" t="n">
-        <v>64.68215049679215</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H16" t="n">
-        <v>64.68215049679215</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I16" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J16" t="n">
-        <v>122.1734787209502</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K16" t="n">
-        <v>348.7010799267873</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L16" t="n">
-        <v>703.3904012212081</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M16" t="n">
-        <v>1094.576196191459</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N16" t="n">
-        <v>1472.067707067495</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O16" t="n">
-        <v>1827.495835747258</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P16" t="n">
-        <v>2118.095047669159</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q16" t="n">
-        <v>2245.09517790992</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R16" t="n">
-        <v>2245.09517790992</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S16" t="n">
-        <v>2074.960130429055</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="T16" t="n">
-        <v>1831.620782654955</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="U16" t="n">
-        <v>1551.43633415526</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="V16" t="n">
-        <v>1269.724866763288</v>
+        <v>2117.183104807232</v>
       </c>
       <c r="W16" t="n">
-        <v>994.8724629358014</v>
+        <v>1842.330700979745</v>
       </c>
       <c r="X16" t="n">
-        <v>752.3085663816065</v>
+        <v>1599.766804425551</v>
       </c>
       <c r="Y16" t="n">
-        <v>525.9657980713486</v>
+        <v>1373.424036115293</v>
       </c>
     </row>
     <row r="17">
@@ -5513,28 +5515,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>651.5495334576516</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1581.174581076928</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2585.460682495986</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N17" t="n">
-        <v>3561.711740982687</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O17" t="n">
-        <v>4406.8563911335</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P17" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q17" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R17" t="n">
         <v>5115.135670291427</v>
@@ -5595,22 +5597,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K18" t="n">
-        <v>610.0460590406528</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L18" t="n">
-        <v>1446.844867123559</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M18" t="n">
-        <v>1446.844867123559</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N18" t="n">
-        <v>1446.844867123559</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="O18" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P18" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q18" t="n">
         <v>1910.990343986338</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>326.3817789554925</v>
+        <v>965.4234913008104</v>
       </c>
       <c r="C19" t="n">
-        <v>268.510919252975</v>
+        <v>793.4509281797264</v>
       </c>
       <c r="D19" t="n">
-        <v>268.510919252975</v>
+        <v>630.1341553064971</v>
       </c>
       <c r="E19" t="n">
-        <v>102.3027134058285</v>
+        <v>463.9259494593506</v>
       </c>
       <c r="F19" t="n">
-        <v>102.3027134058285</v>
+        <v>463.9259494593506</v>
       </c>
       <c r="G19" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H19" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
@@ -5698,25 +5700,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.542080025265</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T19" t="n">
-        <v>1822.202732251165</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U19" t="n">
-        <v>1542.018283751469</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="V19" t="n">
-        <v>1260.306816359498</v>
+        <v>1430.441863840363</v>
       </c>
       <c r="W19" t="n">
-        <v>985.454412532011</v>
+        <v>1155.589460012876</v>
       </c>
       <c r="X19" t="n">
-        <v>742.8905159778161</v>
+        <v>1155.589460012876</v>
       </c>
       <c r="Y19" t="n">
-        <v>516.5477476675582</v>
+        <v>1155.589460012876</v>
       </c>
     </row>
     <row r="20">
@@ -5726,52 +5728,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K20" t="n">
-        <v>1180.414480198223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L20" t="n">
-        <v>2110.0395278175</v>
+        <v>1031.927761025105</v>
       </c>
       <c r="M20" t="n">
-        <v>3114.325629236558</v>
+        <v>2036.213862444163</v>
       </c>
       <c r="N20" t="n">
-        <v>4090.576687723259</v>
+        <v>3012.464920930865</v>
       </c>
       <c r="O20" t="n">
-        <v>4406.8563911335</v>
+        <v>3857.609571081677</v>
       </c>
       <c r="P20" t="n">
-        <v>5115.135670291427</v>
+        <v>4565.888850239604</v>
       </c>
       <c r="Q20" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R20" t="n">
         <v>5115.135670291427</v>
@@ -5789,13 +5791,13 @@
         <v>4173.998480931862</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5828,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J21" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K21" t="n">
-        <v>700.2342829360799</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L21" t="n">
-        <v>700.2342829360799</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>739.6560874287652</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N21" t="n">
-        <v>1828.971033901635</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O21" t="n">
-        <v>1828.971033901635</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P21" t="n">
-        <v>1828.971033901635</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q21" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1185.483835930065</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C22" t="n">
-        <v>1013.511272808982</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="D22" t="n">
-        <v>850.1944999357522</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="E22" t="n">
-        <v>683.9862940886057</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F22" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
@@ -5932,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S22" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T22" t="n">
-        <v>2282.715740818957</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U22" t="n">
-        <v>2282.715740818957</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V22" t="n">
-        <v>2119.408873334071</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W22" t="n">
-        <v>1844.556469506584</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X22" t="n">
-        <v>1601.992572952389</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y22" t="n">
-        <v>1375.649804642131</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="23">
@@ -5990,25 +5992,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>533.9931985757493</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>1463.618246195026</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2467.904347614084</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>3444.155406100785</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3344.544449335636</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C25" t="n">
-        <v>3344.544449335636</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D25" t="n">
-        <v>3344.544449335636</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E25" t="n">
-        <v>3344.544449335636</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F25" t="n">
-        <v>3344.544449335636</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G25" t="n">
-        <v>3178.287479629868</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H25" t="n">
-        <v>3034.491211138023</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I25" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L25" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M25" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N25" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O25" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P25" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q25" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>4897.962009497735</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T25" t="n">
-        <v>4654.622661723635</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U25" t="n">
-        <v>4374.43821322394</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V25" t="n">
-        <v>4092.726745831969</v>
+        <v>2001.004273426986</v>
       </c>
       <c r="W25" t="n">
-        <v>3817.874342004482</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X25" t="n">
-        <v>3575.310445450287</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y25" t="n">
-        <v>3534.710418047702</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6226,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K26" t="n">
-        <v>533.9931985757493</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L26" t="n">
-        <v>1463.618246195026</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M26" t="n">
-        <v>2467.904347614084</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N26" t="n">
-        <v>3444.155406100785</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O26" t="n">
-        <v>4289.300056251597</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P26" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q26" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6306,19 +6308,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K27" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L27" t="n">
-        <v>1194.79262694784</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>1194.79262694784</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N27" t="n">
-        <v>1194.79262694784</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="O27" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P27" t="n">
         <v>1910.990343986338</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3682.725218303867</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C28" t="n">
-        <v>3510.752655182783</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D28" t="n">
-        <v>3510.752655182783</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E28" t="n">
-        <v>3344.544449335636</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F28" t="n">
-        <v>3344.544449335636</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G28" t="n">
-        <v>3178.287479629868</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H28" t="n">
-        <v>3034.491211138023</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I28" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M28" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N28" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O28" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P28" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q28" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>4945.000622810562</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T28" t="n">
-        <v>4701.661275036462</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U28" t="n">
-        <v>4421.476826536767</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V28" t="n">
-        <v>4200.141518685548</v>
+        <v>2001.004273426986</v>
       </c>
       <c r="W28" t="n">
-        <v>3925.289114858062</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X28" t="n">
-        <v>3682.725218303867</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y28" t="n">
-        <v>3682.725218303867</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6449,13 +6451,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
@@ -6464,34 +6466,34 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>464.9061722227241</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="L29" t="n">
-        <v>1394.531219842001</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M29" t="n">
-        <v>2398.817321261059</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N29" t="n">
-        <v>3375.06837974776</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O29" t="n">
-        <v>4220.213029898572</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P29" t="n">
-        <v>4928.4923090565</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T29" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U29" t="n">
         <v>4531.487895805612</v>
@@ -6546,13 +6548,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="M30" t="n">
-        <v>102.3027134058285</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N30" t="n">
-        <v>1021.509065974867</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O30" t="n">
         <v>1910.990343986338</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1185.483835930065</v>
+        <v>3158.801708427964</v>
       </c>
       <c r="C31" t="n">
-        <v>1013.511272808982</v>
+        <v>3100.930848725445</v>
       </c>
       <c r="D31" t="n">
-        <v>850.1944999357522</v>
+        <v>3100.930848725445</v>
       </c>
       <c r="E31" t="n">
-        <v>683.9862940886057</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="F31" t="n">
-        <v>512.1245198631661</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="G31" t="n">
-        <v>345.8675501573982</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="H31" t="n">
-        <v>202.0712816655526</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="I31" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J31" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K31" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L31" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M31" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N31" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O31" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P31" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q31" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R31" t="n">
-        <v>2235.67712750613</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S31" t="n">
-        <v>2235.67712750613</v>
+        <v>4897.962009497735</v>
       </c>
       <c r="T31" t="n">
-        <v>2235.67712750613</v>
+        <v>4654.622661723635</v>
       </c>
       <c r="U31" t="n">
-        <v>1955.492679006434</v>
+        <v>4374.43821322394</v>
       </c>
       <c r="V31" t="n">
-        <v>1955.492679006434</v>
+        <v>4092.726745831969</v>
       </c>
       <c r="W31" t="n">
-        <v>1680.640275178947</v>
+        <v>3817.874342004482</v>
       </c>
       <c r="X31" t="n">
-        <v>1438.076378624753</v>
+        <v>3575.310445450287</v>
       </c>
       <c r="Y31" t="n">
-        <v>1375.649804642131</v>
+        <v>3348.967677140029</v>
       </c>
     </row>
     <row r="32">
@@ -6716,7 +6718,7 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P32" t="n">
-        <v>4659.050190787244</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q32" t="n">
         <v>5115.135670291427</v>
@@ -6786,10 +6788,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>821.6753975134684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O33" t="n">
         <v>1910.990343986338</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>739.8561742104578</v>
+        <v>3205.84032174079</v>
       </c>
       <c r="C34" t="n">
-        <v>567.8836110893737</v>
+        <v>3033.867758619706</v>
       </c>
       <c r="D34" t="n">
-        <v>567.8836110893737</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="E34" t="n">
-        <v>401.6754052422273</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="F34" t="n">
-        <v>229.8136310167877</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="G34" t="n">
-        <v>229.8136310167877</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="H34" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="I34" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J34" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K34" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L34" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M34" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N34" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O34" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P34" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q34" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R34" t="n">
-        <v>2235.67712750613</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S34" t="n">
-        <v>2235.67712750613</v>
+        <v>4945.000622810562</v>
       </c>
       <c r="T34" t="n">
-        <v>2235.67712750613</v>
+        <v>4701.661275036462</v>
       </c>
       <c r="U34" t="n">
-        <v>1955.492679006434</v>
+        <v>4421.476826536767</v>
       </c>
       <c r="V34" t="n">
-        <v>1673.781211614463</v>
+        <v>4139.765359144795</v>
       </c>
       <c r="W34" t="n">
-        <v>1398.928807786976</v>
+        <v>3864.912955317308</v>
       </c>
       <c r="X34" t="n">
-        <v>1156.364911232781</v>
+        <v>3622.349058763114</v>
       </c>
       <c r="Y34" t="n">
-        <v>930.0221429225235</v>
+        <v>3396.006290452855</v>
       </c>
     </row>
     <row r="35">
@@ -6935,25 +6937,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>817.8110213813276</v>
+        <v>903.7433331113961</v>
       </c>
       <c r="L35" t="n">
-        <v>1747.436069000604</v>
+        <v>1833.368380730673</v>
       </c>
       <c r="M35" t="n">
-        <v>2751.722170419663</v>
+        <v>2837.654482149731</v>
       </c>
       <c r="N35" t="n">
-        <v>3727.973228906364</v>
+        <v>3813.905540636432</v>
       </c>
       <c r="O35" t="n">
-        <v>4573.117879057176</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291427</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q35" t="n">
         <v>5115.135670291427</v>
@@ -7014,25 +7016,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J36" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K36" t="n">
-        <v>374.0002026854196</v>
+        <v>357.5299206506891</v>
       </c>
       <c r="L36" t="n">
-        <v>374.0002026854196</v>
+        <v>357.5299206506891</v>
       </c>
       <c r="M36" t="n">
-        <v>821.6753975134684</v>
+        <v>357.5299206506891</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q36" t="n">
         <v>1910.990343986338</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1185.483835930065</v>
+        <v>786.8947875232845</v>
       </c>
       <c r="C37" t="n">
-        <v>1013.511272808982</v>
+        <v>614.9222244022005</v>
       </c>
       <c r="D37" t="n">
-        <v>850.1944999357522</v>
+        <v>451.6054515289712</v>
       </c>
       <c r="E37" t="n">
-        <v>683.9862940886057</v>
+        <v>285.3972456818248</v>
       </c>
       <c r="F37" t="n">
-        <v>512.1245198631661</v>
+        <v>113.5354714563852</v>
       </c>
       <c r="G37" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
@@ -7117,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T37" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U37" t="n">
-        <v>1955.492679006434</v>
+        <v>2002.531292319261</v>
       </c>
       <c r="V37" t="n">
-        <v>1893.066105023813</v>
+        <v>1720.81982492729</v>
       </c>
       <c r="W37" t="n">
-        <v>1618.213701196326</v>
+        <v>1445.967421099803</v>
       </c>
       <c r="X37" t="n">
-        <v>1375.649804642131</v>
+        <v>1203.403524545608</v>
       </c>
       <c r="Y37" t="n">
-        <v>1375.649804642131</v>
+        <v>977.0607562353503</v>
       </c>
     </row>
     <row r="38">
@@ -7178,22 +7180,22 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1180.414480198223</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2129.375202991803</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N38" t="n">
-        <v>3105.626261478504</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O38" t="n">
-        <v>3950.770911629316</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P38" t="n">
-        <v>4659.050190787244</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
         <v>5115.135670291427</v>
@@ -7260,16 +7262,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>102.3027134058285</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N39" t="n">
-        <v>1191.617659878699</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O39" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q39" t="n">
         <v>1910.990343986338</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1185.483835930065</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C40" t="n">
-        <v>1013.511272808982</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="D40" t="n">
-        <v>850.1944999357522</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="E40" t="n">
-        <v>683.9862940886057</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F40" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
@@ -7354,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S40" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T40" t="n">
-        <v>2282.715740818957</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U40" t="n">
-        <v>2210.954372013976</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V40" t="n">
-        <v>1929.242904622005</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W40" t="n">
-        <v>1654.390500794518</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X40" t="n">
-        <v>1411.826604240323</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y40" t="n">
-        <v>1185.483835930065</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1765.976622961234</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C41" t="n">
-        <v>1339.075892974534</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D41" t="n">
-        <v>915.7832721595344</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E41" t="n">
-        <v>489.8063323073919</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F41" t="n">
-        <v>64.68215049679215</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G41" t="n">
-        <v>64.68215049679215</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H41" t="n">
-        <v>64.68215049679215</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I41" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J41" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K41" t="n">
-        <v>780.1904584722912</v>
+        <v>540.2611071157288</v>
       </c>
       <c r="L41" t="n">
-        <v>1580.632070870094</v>
+        <v>1469.886154735005</v>
       </c>
       <c r="M41" t="n">
-        <v>1580.632070870094</v>
+        <v>2474.172256154064</v>
       </c>
       <c r="N41" t="n">
-        <v>1580.632070870094</v>
+        <v>3450.423314640765</v>
       </c>
       <c r="O41" t="n">
-        <v>2381.073683267897</v>
+        <v>4295.567964791577</v>
       </c>
       <c r="P41" t="n">
-        <v>2778.022045335424</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="Q41" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R41" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S41" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="T41" t="n">
-        <v>3234.107524839607</v>
+        <v>4787.617036682362</v>
       </c>
       <c r="U41" t="n">
-        <v>2975.752615436019</v>
+        <v>4529.262127278774</v>
       </c>
       <c r="V41" t="n">
-        <v>2618.263200562269</v>
+        <v>4171.772712405023</v>
       </c>
       <c r="W41" t="n">
-        <v>2591.162257297874</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X41" t="n">
-        <v>2591.162257297874</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y41" t="n">
-        <v>2185.824987252764</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>631.8056415282474</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C42" t="n">
-        <v>514.2997380457522</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D42" t="n">
-        <v>410.4597795610372</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E42" t="n">
-        <v>305.7578458339744</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F42" t="n">
-        <v>212.1120155168786</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G42" t="n">
-        <v>118.0582437344826</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H42" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I42" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J42" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K42" t="n">
-        <v>272.4865562816963</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.928168679499</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="M42" t="n">
-        <v>1072.928168679499</v>
+        <v>819.4496289866299</v>
       </c>
       <c r="N42" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="O42" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P42" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q42" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R42" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S42" t="n">
-        <v>1792.045533638556</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T42" t="n">
-        <v>1650.165597936235</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U42" t="n">
-        <v>1465.397401855871</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V42" t="n">
-        <v>1260.424262995137</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W42" t="n">
-        <v>1063.902885828355</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X42" t="n">
-        <v>900.4255395950178</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y42" t="n">
-        <v>760.7326509483102</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>975.890709899945</v>
+        <v>324.1560104286538</v>
       </c>
       <c r="C43" t="n">
-        <v>975.890709899945</v>
+        <v>152.1834473075698</v>
       </c>
       <c r="D43" t="n">
-        <v>812.5739370267157</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="E43" t="n">
-        <v>646.3657311795693</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="F43" t="n">
-        <v>474.5039569541296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="G43" t="n">
-        <v>308.2469872483618</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H43" t="n">
-        <v>164.4507187565162</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I43" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J43" t="n">
-        <v>122.1734787209502</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K43" t="n">
-        <v>348.7010799267873</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L43" t="n">
-        <v>703.3904012212081</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M43" t="n">
-        <v>1094.576196191459</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N43" t="n">
-        <v>1472.067707067495</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O43" t="n">
-        <v>1827.495835747258</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P43" t="n">
-        <v>2118.095047669159</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q43" t="n">
-        <v>2245.09517790992</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R43" t="n">
-        <v>2198.056564597094</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S43" t="n">
-        <v>2027.921517116229</v>
+        <v>2063.316311498426</v>
       </c>
       <c r="T43" t="n">
-        <v>1784.582169342129</v>
+        <v>1819.976963724326</v>
       </c>
       <c r="U43" t="n">
-        <v>1784.582169342129</v>
+        <v>1539.792515224631</v>
       </c>
       <c r="V43" t="n">
-        <v>1502.870701950157</v>
+        <v>1258.081047832659</v>
       </c>
       <c r="W43" t="n">
-        <v>1502.870701950157</v>
+        <v>983.2286440051723</v>
       </c>
       <c r="X43" t="n">
-        <v>1260.306805395963</v>
+        <v>740.6647474509774</v>
       </c>
       <c r="Y43" t="n">
-        <v>1166.056678612011</v>
+        <v>514.3219791407195</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2063.845001487199</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C44" t="n">
-        <v>1636.944271500499</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D44" t="n">
-        <v>1213.6516506855</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E44" t="n">
-        <v>787.674710833357</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F44" t="n">
-        <v>362.5505290227573</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G44" t="n">
-        <v>362.5505290227573</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H44" t="n">
-        <v>64.68215049679215</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I44" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J44" t="n">
-        <v>427.2856093136876</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K44" t="n">
-        <v>1142.793917289187</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L44" t="n">
-        <v>1943.23552968699</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M44" t="n">
-        <v>2743.677142084793</v>
+        <v>3112.09986070972</v>
       </c>
       <c r="N44" t="n">
-        <v>2743.677142084793</v>
+        <v>4088.350919196421</v>
       </c>
       <c r="O44" t="n">
-        <v>2743.677142084793</v>
+        <v>4933.495569347233</v>
       </c>
       <c r="P44" t="n">
-        <v>2743.677142084793</v>
+        <v>4933.495569347233</v>
       </c>
       <c r="Q44" t="n">
-        <v>3199.762621588976</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R44" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S44" t="n">
-        <v>3234.107524839607</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T44" t="n">
-        <v>3234.107524839607</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U44" t="n">
-        <v>3234.107524839607</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V44" t="n">
-        <v>3234.107524839607</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W44" t="n">
-        <v>3234.107524839607</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X44" t="n">
-        <v>2822.387526007355</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y44" t="n">
-        <v>2483.693365778729</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>631.8056415282474</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C45" t="n">
-        <v>514.2997380457522</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D45" t="n">
-        <v>410.4597795610372</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E45" t="n">
-        <v>305.7578458339744</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F45" t="n">
-        <v>212.1120155168786</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G45" t="n">
-        <v>118.0582437344826</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H45" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I45" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J45" t="n">
-        <v>64.68215049679215</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="K45" t="n">
-        <v>64.68215049679215</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="L45" t="n">
-        <v>865.123762894595</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="M45" t="n">
-        <v>865.123762894595</v>
+        <v>1427.760972134626</v>
       </c>
       <c r="N45" t="n">
-        <v>865.123762894595</v>
+        <v>1427.760972134626</v>
       </c>
       <c r="O45" t="n">
-        <v>1327.204994129819</v>
+        <v>1427.760972134626</v>
       </c>
       <c r="P45" t="n">
-        <v>1327.204994129819</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q45" t="n">
-        <v>1791.350470992599</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R45" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S45" t="n">
-        <v>1792.045533638556</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T45" t="n">
-        <v>1650.165597936235</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U45" t="n">
-        <v>1465.397401855871</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V45" t="n">
-        <v>1260.424262995137</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W45" t="n">
-        <v>1063.902885828355</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X45" t="n">
-        <v>900.4255395950178</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y45" t="n">
-        <v>760.7326509483102</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1147.863273021029</v>
+        <v>371.1946237414806</v>
       </c>
       <c r="C46" t="n">
-        <v>975.890709899945</v>
+        <v>199.2220606203966</v>
       </c>
       <c r="D46" t="n">
-        <v>812.5739370267157</v>
+        <v>199.2220606203966</v>
       </c>
       <c r="E46" t="n">
-        <v>646.3657311795693</v>
+        <v>199.2220606203966</v>
       </c>
       <c r="F46" t="n">
-        <v>474.5039569541296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="G46" t="n">
-        <v>308.2469872483618</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H46" t="n">
-        <v>164.4507187565162</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I46" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J46" t="n">
-        <v>122.1734787209502</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K46" t="n">
-        <v>348.7010799267873</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L46" t="n">
-        <v>703.3904012212081</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M46" t="n">
-        <v>1094.576196191459</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N46" t="n">
-        <v>1472.067707067495</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O46" t="n">
-        <v>1827.495835747258</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P46" t="n">
-        <v>2118.095047669159</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q46" t="n">
-        <v>2245.09517790992</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R46" t="n">
-        <v>2245.09517790992</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S46" t="n">
-        <v>2245.09517790992</v>
+        <v>2110.354924811253</v>
       </c>
       <c r="T46" t="n">
-        <v>2245.09517790992</v>
+        <v>1867.015577037153</v>
       </c>
       <c r="U46" t="n">
-        <v>2245.09517790992</v>
+        <v>1586.831128537457</v>
       </c>
       <c r="V46" t="n">
-        <v>1963.383710517949</v>
+        <v>1305.119661145486</v>
       </c>
       <c r="W46" t="n">
-        <v>1806.935906597548</v>
+        <v>1030.267257317999</v>
       </c>
       <c r="X46" t="n">
-        <v>1564.372010043353</v>
+        <v>787.7033607638042</v>
       </c>
       <c r="Y46" t="n">
-        <v>1338.029241733095</v>
+        <v>561.3605924535462</v>
       </c>
     </row>
   </sheetData>
@@ -7976,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
         <v>591.9924139104035</v>
@@ -7985,22 +7987,22 @@
         <v>594.539855548217</v>
       </c>
       <c r="M2" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N2" t="n">
-        <v>37.27962283444602</v>
+        <v>571.0335849150666</v>
       </c>
       <c r="O2" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>181.8548408418185</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8061,25 +8063,25 @@
         <v>578.6270469489275</v>
       </c>
       <c r="L3" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>96.76900350898831</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>181.4456529820153</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q3" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8213,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
         <v>593.6590760150259</v>
       </c>
       <c r="N5" t="n">
-        <v>593.5074359500402</v>
+        <v>86.02369229001789</v>
       </c>
       <c r="O5" t="n">
         <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
-        <v>571.3293238908518</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,28 +8294,28 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>459.5991032870438</v>
+        <v>90.41920043198729</v>
       </c>
       <c r="M6" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O6" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P6" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
         <v>106.5207073584907</v>
@@ -8392,7 +8394,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
-        <v>152.9025226039384</v>
+        <v>152.9025226039392</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8456,10 +8458,10 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>87.05611188819479</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
-        <v>593.6590760150259</v>
+        <v>86.17533235500369</v>
       </c>
       <c r="N8" t="n">
         <v>593.5074359500402</v>
@@ -8529,22 +8531,22 @@
         <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>579.3245936279221</v>
+        <v>380.3086605601453</v>
       </c>
       <c r="N9" t="n">
-        <v>179.6167914733347</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O9" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P9" t="n">
         <v>21.77084120482866</v>
@@ -8553,7 +8555,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8693,22 +8695,22 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>846.8389236425247</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>845.9581441093336</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>780.2975317699713</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>492.957169079497</v>
       </c>
       <c r="R11" t="n">
         <v>153.7764225027789</v>
@@ -8766,10 +8768,10 @@
         <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>382.6486756511529</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
         <v>22.51508671422956</v>
@@ -8778,16 +8780,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>21.34302821354166</v>
+        <v>949.8342934347922</v>
       </c>
       <c r="O12" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P12" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
         <v>23.67291939414415</v>
@@ -8927,22 +8929,22 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>846.8389236425247</v>
+        <v>699.2220443321344</v>
       </c>
       <c r="M14" t="n">
-        <v>813.2903913331761</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>845.8065040443479</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>845.9178405659259</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
         <v>36.12467460459804</v>
@@ -9003,10 +9005,10 @@
         <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
         <v>22.51508671422956</v>
@@ -9015,19 +9017,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>21.34302821354166</v>
+        <v>1022.176719479639</v>
       </c>
       <c r="O15" t="n">
-        <v>530.2476341400729</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,10 +9163,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>590.5593685239236</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
         <v>977.3272420480539</v>
@@ -9179,13 +9181,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>753.0089771212694</v>
+        <v>100.0581876036193</v>
       </c>
       <c r="Q17" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,25 +9245,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K18" t="n">
-        <v>535.2713001311357</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N18" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>23.17188972222222</v>
+        <v>783.4760236661258</v>
       </c>
       <c r="P18" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R18" t="n">
         <v>23.67291939414415</v>
@@ -9398,10 +9400,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K20" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L20" t="n">
         <v>977.3272420480539</v>
@@ -9413,16 +9415,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O20" t="n">
-        <v>356.8654072451563</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>472.1756697257304</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9474,22 +9476,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J21" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K21" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>62.91678505039393</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N21" t="n">
-        <v>1121.661155963915</v>
+        <v>312.8133471445368</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
@@ -9498,10 +9500,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9638,7 +9640,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K23" t="n">
-        <v>758.5002654165255</v>
+        <v>471.8155959159414</v>
       </c>
       <c r="L23" t="n">
         <v>977.3272420480539</v>
@@ -9653,13 +9655,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
-        <v>105.5494758988752</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
         <v>977.3272420480539</v>
@@ -9890,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q26" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,22 +9956,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K27" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L27" t="n">
-        <v>529.5908311320803</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O27" t="n">
-        <v>23.17188972222222</v>
+        <v>749.810964578424</v>
       </c>
       <c r="P27" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
         <v>22.7470382889785</v>
@@ -10112,10 +10114,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
-        <v>35.76460079480934</v>
+        <v>583.8722719747271</v>
       </c>
       <c r="L29" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M29" t="n">
         <v>1051.861668373228</v>
@@ -10130,10 +10132,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>224.6533223166459</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10194,16 +10196,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L30" t="n">
-        <v>22.51508671422956</v>
+        <v>749.1541615704315</v>
       </c>
       <c r="M30" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>949.8342934347922</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O30" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
         <v>21.77084120482866</v>
@@ -10364,10 +10366,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>124.3756766890881</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q32" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
         <v>35.03264989479647</v>
@@ -10434,13 +10436,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>949.8342934347922</v>
       </c>
       <c r="O33" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P33" t="n">
         <v>21.77084120482866</v>
@@ -10583,10 +10585,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>758.5002654165255</v>
+        <v>479.0344602783164</v>
       </c>
       <c r="L35" t="n">
         <v>977.3272420480539</v>
@@ -10601,10 +10603,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>585.0680802286672</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
         <v>35.03264989479647</v>
@@ -10662,16 +10664,16 @@
         <v>16.17238675</v>
       </c>
       <c r="J36" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>280.2044936766268</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>475.2939470053066</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
         <v>1121.661155963915</v>
@@ -10683,7 +10685,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
         <v>23.67291939414415</v>
@@ -10826,10 +10828,10 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>995.9774475394116</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N38" t="n">
         <v>1023.391803124043</v>
@@ -10838,13 +10840,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>753.0089771212694</v>
+        <v>100.0581876036193</v>
       </c>
       <c r="Q38" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10908,19 +10910,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N39" t="n">
-        <v>1121.661155963915</v>
+        <v>312.8133471445368</v>
       </c>
       <c r="O39" t="n">
-        <v>749.810964578424</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
         <v>23.67291939414415</v>
@@ -11060,25 +11062,25 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K41" t="n">
-        <v>758.5002654165255</v>
+        <v>480.395067700606</v>
       </c>
       <c r="L41" t="n">
-        <v>846.8389236425247</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>845.9178405659259</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>438.5333032925822</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
         <v>35.03264989479647</v>
@@ -11139,16 +11141,16 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>232.3026740201052</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>831.0419679241314</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N42" t="n">
-        <v>829.8699094234435</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O42" t="n">
         <v>23.17188972222222</v>
@@ -11300,25 +11302,25 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>846.8389236425247</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>845.9581441093336</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q44" t="n">
-        <v>496.8170781441769</v>
+        <v>107.1869721826501</v>
       </c>
       <c r="R44" t="n">
-        <v>69.72447136008074</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,31 +11375,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
-        <v>831.0419679241314</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N45" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>489.9206081416409</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>507.6330667855089</v>
       </c>
       <c r="Q45" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R45" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23261,22 +23263,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>107.9720312369328</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>224.1531608658033</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23315,10 +23317,10 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23419,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>110.0981677402028</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,16 +23466,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>163.7887810877128</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23501,19 +23503,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>344.1760037037297</v>
+        <v>4.648410051341671</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,7 +23548,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23558,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23656,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>66.39245920468228</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,16 +23703,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23890,10 +23892,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>112.9606863843808</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23902,13 +23904,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>47.71658469977734</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -24130,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>110.0981677402028</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24364,16 +24366,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24409,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>183.8853134985957</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24649,25 +24651,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>59.77239794534538</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.96068638438</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,16 +24888,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>162.2770323843602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25078,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>63.52994056050392</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>16.12249737207759</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
         <v>98.77088257712678</v>
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25324,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>153.4739695386591</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
         <v>168.4336970060565</v>
@@ -25369,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>217.0920444752562</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>110.0981677402028</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>206.3388488977681</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25640,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25679,7 +25681,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>4.64841005134187</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25688,10 +25690,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>365.597502370905</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25786,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>110.0981677402031</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,19 +25842,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>130.7717151110431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25877,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>107.9720312369328</v>
       </c>
       <c r="Y44" t="n">
-        <v>65.9766787183197</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26026,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>71.98949189919274</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,19 +26073,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>532713.5088830292</v>
+        <v>707457.6174715059</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>532713.5088830292</v>
+        <v>707457.6174715058</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>718446.2372370805</v>
+        <v>718446.2372370806</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>718446.2372370805</v>
+        <v>718446.2372370806</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>718446.2372370805</v>
+        <v>718446.2372370806</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>718446.2372370805</v>
+        <v>718446.2372370806</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>532713.5088830292</v>
+        <v>707457.6174715058</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>532713.5088830293</v>
+        <v>707457.6174715058</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>378587.734207256</v>
+        <v>378587.7342072559</v>
       </c>
       <c r="C2" t="n">
         <v>378587.734207256</v>
       </c>
       <c r="D2" t="n">
-        <v>378587.734207256</v>
+        <v>378587.7342072561</v>
       </c>
       <c r="E2" t="n">
-        <v>270895.6328017849</v>
+        <v>359733.2891431418</v>
       </c>
       <c r="F2" t="n">
-        <v>270895.6328017848</v>
+        <v>359733.2891431418</v>
       </c>
       <c r="G2" t="n">
-        <v>365319.7620393409</v>
+        <v>365319.7620393408</v>
       </c>
       <c r="H2" t="n">
         <v>365319.7620393409</v>
@@ -26335,10 +26337,10 @@
         <v>365319.7620393407</v>
       </c>
       <c r="J2" t="n">
-        <v>365319.7620393408</v>
+        <v>365319.7620393406</v>
       </c>
       <c r="K2" t="n">
-        <v>365319.7620393407</v>
+        <v>365319.7620393409</v>
       </c>
       <c r="L2" t="n">
         <v>365319.7620393407</v>
@@ -26347,13 +26349,13 @@
         <v>365319.7620393407</v>
       </c>
       <c r="N2" t="n">
-        <v>365319.7620393409</v>
+        <v>365319.7620393407</v>
       </c>
       <c r="O2" t="n">
-        <v>270895.6328017849</v>
+        <v>359733.2891431419</v>
       </c>
       <c r="P2" t="n">
-        <v>270895.6328017848</v>
+        <v>359733.2891431418</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>75330.9511534622</v>
+        <v>207432.2876165609</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>128890.3998115405</v>
+        <v>7625.622083481478</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>62873.93696537385</v>
+        <v>173130.4912056396</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,13 +26426,13 @@
         <v>199866.3919893415</v>
       </c>
       <c r="E4" t="n">
-        <v>74852.47981333025</v>
+        <v>99465.11171784476</v>
       </c>
       <c r="F4" t="n">
-        <v>74852.47981333025</v>
+        <v>99465.11171784473</v>
       </c>
       <c r="G4" t="n">
-        <v>101012.8540458318</v>
+        <v>101012.8540458319</v>
       </c>
       <c r="H4" t="n">
         <v>101012.8540458319</v>
@@ -26454,10 +26456,10 @@
         <v>101012.8540458319</v>
       </c>
       <c r="O4" t="n">
-        <v>74852.47981333025</v>
+        <v>99465.11171784475</v>
       </c>
       <c r="P4" t="n">
-        <v>74852.47981333025</v>
+        <v>99465.11171784473</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26478,10 @@
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>49158.43437756203</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="F5" t="n">
-        <v>49158.43437756203</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="G5" t="n">
         <v>77750.06218842969</v>
@@ -26506,10 +26508,10 @@
         <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>49158.43437756203</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="P5" t="n">
-        <v>49158.43437756203</v>
+        <v>76058.47810803246</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-75129.64223425087</v>
+        <v>-75129.64223425099</v>
       </c>
       <c r="C6" t="n">
-        <v>111275.0911804863</v>
+        <v>111275.0911804864</v>
       </c>
       <c r="D6" t="n">
-        <v>111275.0911804863</v>
+        <v>111275.0911804865</v>
       </c>
       <c r="E6" t="n">
-        <v>71553.76745743043</v>
+        <v>-23222.58829929639</v>
       </c>
       <c r="F6" t="n">
-        <v>146884.7186108926</v>
+        <v>184209.6993172646</v>
       </c>
       <c r="G6" t="n">
-        <v>57666.44599353884</v>
+        <v>178931.2237215978</v>
       </c>
       <c r="H6" t="n">
         <v>186556.8458050793</v>
@@ -26543,25 +26545,25 @@
         <v>186556.8458050792</v>
       </c>
       <c r="J6" t="n">
-        <v>41023.17587026274</v>
+        <v>41023.17587026261</v>
       </c>
       <c r="K6" t="n">
-        <v>186556.8458050792</v>
+        <v>186556.8458050793</v>
       </c>
       <c r="L6" t="n">
         <v>186556.8458050792</v>
       </c>
       <c r="M6" t="n">
-        <v>123682.9088397053</v>
+        <v>13426.35459943966</v>
       </c>
       <c r="N6" t="n">
-        <v>186556.8458050793</v>
+        <v>186556.8458050792</v>
       </c>
       <c r="O6" t="n">
-        <v>146884.7186108926</v>
+        <v>184209.6993172647</v>
       </c>
       <c r="P6" t="n">
-        <v>146884.7186108925</v>
+        <v>184209.6993172646</v>
       </c>
     </row>
   </sheetData>
@@ -26796,10 +26798,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>808.5268812099018</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="F4" t="n">
-        <v>808.5268812099018</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>808.5268812099018</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="P4" t="n">
-        <v>808.5268812099018</v>
+        <v>1250.961810987376</v>
       </c>
     </row>
   </sheetData>
@@ -27018,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>252.2990680943076</v>
+        <v>694.733997871782</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>470.257036362955</v>
+        <v>27.8221065854807</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.2990680943076</v>
+        <v>694.733997871782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.2990680943076</v>
+        <v>694.733997871782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>470.257036362955</v>
+        <v>27.8221065854807</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,19 +27381,19 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>307.0927181998167</v>
+        <v>331.3947386960821</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>24.48955970259252</v>
+        <v>159.2730340346747</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27546,16 +27548,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,7 +27587,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27594,7 +27596,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27613,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>245.3945739651544</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>350.5048792244489</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>34.5479025439635</v>
@@ -27679,10 +27681,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>170.523817295557</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27792,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>188.9742787046154</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>385.0527817684124</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27871,7 +27873,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27913,13 +27915,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>342.9323154271057</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28023,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>229.7855238263084</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>201.0331275137589</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -34696,7 +34698,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>556.2278131155941</v>
@@ -34705,22 +34707,22 @@
         <v>556.2278131155941</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>533.7539620806206</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>144.2794790315872</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34781,25 +34783,25 @@
         <v>556.2278131155941</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3" t="n">
+        <v>158.2737632597931</v>
+      </c>
+      <c r="P3" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="N3" t="n">
-        <v>75.42597529544663</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="N5" t="n">
-        <v>556.2278131155941</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="O5" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="P5" t="n">
-        <v>533.7539620806206</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>437.0840165728143</v>
+        <v>67.90411371775774</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q6" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>82.84778796434657</v>
@@ -35112,7 +35114,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391542</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35176,10 +35178,10 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
+        <v>556.2278131155941</v>
+      </c>
+      <c r="M8" t="n">
         <v>48.74406945557187</v>
-      </c>
-      <c r="M8" t="n">
-        <v>556.2278131155941</v>
       </c>
       <c r="N8" t="n">
         <v>556.2278131155941</v>
@@ -35249,23 +35251,23 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>357.2118800478173</v>
+      </c>
+      <c r="N9" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L9" t="n">
+      <c r="O9" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M9" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="N9" t="n">
-        <v>158.2737632597931</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
@@ -35273,7 +35275,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35413,22 +35415,22 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>808.5268812099018</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>808.5268812099018</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>742.9065724139473</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>456.832494474899</v>
       </c>
       <c r="R11" t="n">
         <v>118.7437726079824</v>
@@ -35486,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>360.2494418178196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35498,16 +35500,16 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P12" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>808.5268812099018</v>
+        <v>660.9100018995115</v>
       </c>
       <c r="M14" t="n">
-        <v>775.8591284337443</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>808.5268812099018</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>808.5268812099018</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35723,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35735,19 +35737,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1000.833691266097</v>
       </c>
       <c r="O15" t="n">
-        <v>507.0757444178507</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,10 +35883,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>554.7947677291143</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
         <v>939.015199615431</v>
@@ -35899,13 +35901,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>715.433615311038</v>
+        <v>62.48282579338804</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>512.8720662978023</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,10 +36120,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>939.015199615431</v>
@@ -36133,16 +36135,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O20" t="n">
-        <v>319.4744478891323</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>436.0509951211323</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,22 +36196,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>39.82000453806594</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N21" t="n">
-        <v>1100.318127750374</v>
+        <v>291.4703189309951</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36218,10 +36220,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36358,7 +36360,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>722.7356646217162</v>
+        <v>436.0509951211321</v>
       </c>
       <c r="L23" t="n">
         <v>939.015199615431</v>
@@ -36373,13 +36375,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36592,10 +36594,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>69.78487510406583</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
         <v>939.015199615431</v>
@@ -36610,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,22 +36676,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>507.0757444178507</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>726.6390748562018</v>
       </c>
       <c r="P27" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36832,10 +36834,10 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>548.1076711799178</v>
       </c>
       <c r="L29" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>1014.430405473796</v>
@@ -36850,10 +36852,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>188.5286477120479</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,16 +36916,16 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>928.4912652212506</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O30" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37084,10 +37086,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>86.80031487885682</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q32" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37154,13 +37156,13 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37303,10 +37305,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>722.7356646217162</v>
+        <v>443.269859483507</v>
       </c>
       <c r="L35" t="n">
         <v>939.015199615431</v>
@@ -37321,10 +37323,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>547.4927184184359</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,16 +37384,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>257.8052598432935</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>452.1971664929786</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>1100.318127750374</v>
@@ -37403,7 +37405,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37546,10 +37548,10 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>958.5461846399799</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N38" t="n">
         <v>986.1121802895968</v>
@@ -37558,13 +37560,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>715.433615311038</v>
+        <v>62.48282579338804</v>
       </c>
       <c r="Q38" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,19 +37630,19 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N39" t="n">
-        <v>1100.318127750374</v>
+        <v>291.4703189309951</v>
       </c>
       <c r="O39" t="n">
-        <v>726.6390748562018</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,25 +37782,25 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>722.7356646217162</v>
+        <v>444.6304669057967</v>
       </c>
       <c r="L41" t="n">
-        <v>808.5268812099018</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>808.5268812099018</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>400.9579414823509</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37859,16 +37861,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>209.9034401867719</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>808.5268812099018</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N42" t="n">
-        <v>808.5268812099018</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -38020,25 +38022,25 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>808.5268812099018</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>808.5268812099018</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>460.6924035395789</v>
+        <v>71.06229757805201</v>
       </c>
       <c r="R44" t="n">
-        <v>34.69182146528428</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>808.5268812099018</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>466.7487184194187</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>485.8622255806802</v>
       </c>
       <c r="Q45" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_7_26.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_7_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>898292.4081321842</v>
+        <v>897574.4180173258</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>698313.683076074</v>
+        <v>698313.6830760743</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8225155.112316691</v>
+        <v>8225155.11231669</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>91.23698399075077</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
         <v>20.87293999249374</v>
@@ -676,10 +676,10 @@
         <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -718,13 +718,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>162.2082248787756</v>
       </c>
       <c r="Y2" t="n">
         <v>401.2838973446586</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>10.97980345519848</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
         <v>161.683605144497</v>
@@ -831,13 +831,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,16 +867,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>46.27323811058137</v>
       </c>
       <c r="U4" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>170.2553066834604</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>7.602798843930202</v>
+        <v>57.09791961948127</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17.74049172938803</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
         <v>170.2528374898731</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>218.0080577057878</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -1138,7 +1138,7 @@
         <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
         <v>421.717170453621</v>
@@ -1150,10 +1150,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>160.9625419957387</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>64.67048341682457</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
         <v>1.283897344658556</v>
@@ -1296,13 +1296,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>51.58543740429392</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>11.12043047005062</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
         <v>277.3826040146988</v>
@@ -1375,7 +1375,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>311.0876633699169</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
         <v>421.717170453621</v>
@@ -1429,7 +1429,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>245.9424894880796</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
@@ -1533,19 +1533,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>98.77088257712678</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>115.1055716303386</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1596,7 +1596,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>223.462122634021</v>
       </c>
     </row>
     <row r="14">
@@ -1621,7 +1621,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>395.6472617351042</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
         <v>294.8896947407055</v>
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>214.0679051944713</v>
       </c>
       <c r="U14" t="n">
         <v>255.7713603095518</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>121.8718498202624</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,16 +1815,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.3236211855919</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
         <v>218.7163152458132</v>
@@ -1906,7 +1906,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>392.4274362026577</v>
       </c>
       <c r="X17" t="n">
         <v>407.6027988439302</v>
@@ -2013,16 +2013,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>116.8778153089328</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>265.5672156808876</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2241,10 +2241,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>51.58543740429417</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>126.0481962669387</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>168.4336970060565</v>
@@ -2481,22 +2481,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,19 +2526,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>168.9164623971668</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>154.8833258811978</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
         <v>240.1382575886529</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>50.9472227060466</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>164.5944000087102</v>
@@ -2763,19 +2763,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>154.8833258811978</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>103.3236211855919</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T29" t="n">
         <v>218.7163152458132</v>
@@ -2952,13 +2952,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>57.29215110549318</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>167.8164790129224</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3192,22 +3192,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>98.15366458399308</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>30.4457298076209</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>277.3826040146988</v>
@@ -3429,7 +3429,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
@@ -3438,7 +3438,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>11.12043047005107</v>
+        <v>42.35873703018397</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3663,25 +3663,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>51.58543740429417</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>112.2806670195424</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>168.4336970060565</v>
@@ -3717,7 +3717,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -3760,7 +3760,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>214.0679051944713</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>182.3472316165828</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
@@ -3903,13 +3903,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>51.58543740429393</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
@@ -3994,10 +3994,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>221.4655660477363</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>299.6307676069974</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>98.15366458399244</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -4306,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>638.1652587604844</v>
+        <v>1235.878926328994</v>
       </c>
       <c r="C2" t="n">
-        <v>546.0066890728574</v>
+        <v>1213.018600382698</v>
       </c>
       <c r="D2" t="n">
-        <v>122.7140682578577</v>
+        <v>789.7259795676982</v>
       </c>
       <c r="E2" t="n">
-        <v>100.7775324461193</v>
+        <v>363.7490397155557</v>
       </c>
       <c r="F2" t="n">
-        <v>79.69375467592363</v>
+        <v>342.66526194536</v>
       </c>
       <c r="G2" t="n">
-        <v>79.39509630577632</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H2" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I2" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J2" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K2" t="n">
-        <v>595.1637600336857</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="L2" t="n">
-        <v>1145.829295018124</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="M2" t="n">
-        <v>1696.494830002562</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="N2" t="n">
-        <v>2224.911252462377</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O2" t="n">
-        <v>2224.911252462377</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="P2" t="n">
-        <v>2224.911252462377</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q2" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R2" t="n">
         <v>2224.911252462377</v>
@@ -4366,16 +4366,16 @@
         <v>2224.911252462377</v>
       </c>
       <c r="V2" t="n">
-        <v>1867.421837588626</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W2" t="n">
-        <v>1471.030487888973</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X2" t="n">
-        <v>1059.31048905672</v>
+        <v>2061.064560665634</v>
       </c>
       <c r="Y2" t="n">
-        <v>653.9732190116105</v>
+        <v>1655.727290620524</v>
       </c>
     </row>
     <row r="3">
@@ -4406,22 +4406,22 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I3" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J3" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K3" t="n">
-        <v>595.1637600336857</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="L3" t="n">
-        <v>595.1637600336857</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="M3" t="n">
-        <v>595.1637600336857</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="N3" t="n">
-        <v>1145.829295018124</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="O3" t="n">
         <v>1302.520320645319</v>
@@ -4464,49 +4464,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>966.7974950132069</v>
+        <v>861.6538096079925</v>
       </c>
       <c r="C4" t="n">
-        <v>955.7067844524004</v>
+        <v>689.6812464869084</v>
       </c>
       <c r="D4" t="n">
-        <v>792.3900115791711</v>
+        <v>526.3644736136791</v>
       </c>
       <c r="E4" t="n">
-        <v>626.1818057320246</v>
+        <v>360.1562677665327</v>
       </c>
       <c r="F4" t="n">
-        <v>454.3200315065851</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="G4" t="n">
-        <v>288.0630618008172</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H4" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I4" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J4" t="n">
-        <v>101.9895532734058</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K4" t="n">
-        <v>328.5171544792431</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736639</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M4" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N4" t="n">
         <v>1451.88378161995</v>
       </c>
       <c r="O4" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P4" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q4" t="n">
         <v>2224.911252462377</v>
@@ -4515,25 +4515,25 @@
         <v>2177.87263914955</v>
       </c>
       <c r="S4" t="n">
-        <v>2007.737591668685</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="T4" t="n">
-        <v>1764.398243894585</v>
+        <v>2131.131994593407</v>
       </c>
       <c r="U4" t="n">
-        <v>1484.213795394889</v>
+        <v>1850.947546093711</v>
       </c>
       <c r="V4" t="n">
-        <v>1484.213795394889</v>
+        <v>1569.23607870174</v>
       </c>
       <c r="W4" t="n">
-        <v>1209.361391567402</v>
+        <v>1294.383674874253</v>
       </c>
       <c r="X4" t="n">
-        <v>966.7974950132069</v>
+        <v>1051.819778320058</v>
       </c>
       <c r="Y4" t="n">
-        <v>966.7974950132069</v>
+        <v>1051.819778320058</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2043.959734409802</v>
+        <v>1342.050951843433</v>
       </c>
       <c r="C5" t="n">
-        <v>1617.059004423102</v>
+        <v>915.1502218567327</v>
       </c>
       <c r="D5" t="n">
-        <v>1597.806787648507</v>
+        <v>491.857601041733</v>
       </c>
       <c r="E5" t="n">
-        <v>1171.829847796364</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F5" t="n">
-        <v>746.7056659857641</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G5" t="n">
-        <v>342.3666035752127</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H5" t="n">
         <v>44.49822504924753</v>
@@ -4567,25 +4567,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L5" t="n">
-        <v>957.7672188505812</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M5" t="n">
-        <v>1508.432753835019</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="N5" t="n">
-        <v>1556.689382596036</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="O5" t="n">
-        <v>2107.354917580474</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="P5" t="n">
-        <v>2107.354917580474</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="Q5" t="n">
         <v>2107.354917580474</v>
@@ -4609,10 +4609,10 @@
         <v>2224.911252462377</v>
       </c>
       <c r="X5" t="n">
-        <v>2217.231657670528</v>
+        <v>2167.236586180072</v>
       </c>
       <c r="Y5" t="n">
-        <v>2215.934791665823</v>
+        <v>1761.899316134963</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>51.94486801115937</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>51.94486801115937</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L6" t="n">
-        <v>119.1699405917395</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="M6" t="n">
-        <v>119.1699405917395</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="N6" t="n">
-        <v>669.8354755761777</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="O6" t="n">
-        <v>1220.501010560616</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P6" t="n">
-        <v>1771.166545545054</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q6" t="n">
         <v>1771.166545545054</v>
@@ -4746,31 +4746,31 @@
         <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2224.911252462377</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S7" t="n">
-        <v>2224.911252462377</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T7" t="n">
-        <v>2224.911252462377</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U7" t="n">
-        <v>1944.726803962681</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="V7" t="n">
-        <v>1663.01533657071</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="W7" t="n">
-        <v>1388.162932743223</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="X7" t="n">
-        <v>1145.599036189028</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y7" t="n">
-        <v>1145.599036189028</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1746.091355883837</v>
+        <v>1674.816201625927</v>
       </c>
       <c r="C8" t="n">
-        <v>1723.231029937541</v>
+        <v>1651.955875679631</v>
       </c>
       <c r="D8" t="n">
-        <v>1299.938409122541</v>
+        <v>1632.703658905035</v>
       </c>
       <c r="E8" t="n">
-        <v>873.9614692703988</v>
+        <v>1206.726719052893</v>
       </c>
       <c r="F8" t="n">
-        <v>448.8372874597989</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="G8" t="n">
-        <v>44.49822504924753</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H8" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I8" t="n">
         <v>44.49822504924753</v>
@@ -4807,22 +4807,22 @@
         <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>407.101683866143</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="L8" t="n">
-        <v>957.7672188505812</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="M8" t="n">
-        <v>1006.023847611597</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="N8" t="n">
-        <v>1556.689382596036</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="O8" t="n">
-        <v>2107.354917580474</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P8" t="n">
-        <v>2107.354917580474</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q8" t="n">
         <v>2107.354917580474</v>
@@ -4831,25 +4831,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.911252462377</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="V8" t="n">
-        <v>2224.911252462377</v>
+        <v>1699.600622673607</v>
       </c>
       <c r="W8" t="n">
-        <v>1828.519902762723</v>
+        <v>1699.600622673607</v>
       </c>
       <c r="X8" t="n">
-        <v>1763.196182139668</v>
+        <v>1691.921027881758</v>
       </c>
       <c r="Y8" t="n">
-        <v>1761.899316134963</v>
+        <v>1690.624161877053</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>316.1957143288386</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="L9" t="n">
-        <v>316.1957143288386</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="M9" t="n">
-        <v>669.8354755761777</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="N9" t="n">
-        <v>1220.501010560616</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="O9" t="n">
-        <v>1771.166545545054</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P9" t="n">
-        <v>1771.166545545054</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q9" t="n">
         <v>1771.166545545054</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>717.8575411161469</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="C10" t="n">
-        <v>545.8849779950629</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="D10" t="n">
-        <v>382.5682051218336</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="E10" t="n">
-        <v>216.3599992746871</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="F10" t="n">
         <v>44.49822504924753</v>
@@ -4986,28 +4986,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>2224.911252462376</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T10" t="n">
-        <v>2213.678494411819</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U10" t="n">
-        <v>1933.494045912124</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V10" t="n">
-        <v>1651.782578520152</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W10" t="n">
-        <v>1376.930174692665</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X10" t="n">
-        <v>1134.366278138471</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y10" t="n">
-        <v>908.0235098282126</v>
+        <v>458.7432593109769</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2429.413071721394</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C11" t="n">
-        <v>2002.512341734694</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D11" t="n">
         <v>1688.282378734778</v>
@@ -5041,25 +5041,25 @@
         <v>100.0769448789901</v>
       </c>
       <c r="J11" t="n">
-        <v>100.0769448789901</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K11" t="n">
-        <v>815.5852528544891</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L11" t="n">
-        <v>1745.210300473766</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M11" t="n">
-        <v>2749.496401892824</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="N11" t="n">
-        <v>3725.747460379525</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O11" t="n">
-        <v>3725.747460379525</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P11" t="n">
-        <v>4434.026739537452</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q11" t="n">
         <v>4886.290909067602</v>
@@ -5077,16 +5077,16 @@
         <v>4420.19946946369</v>
       </c>
       <c r="V11" t="n">
-        <v>4062.710054589939</v>
+        <v>4171.772712405023</v>
       </c>
       <c r="W11" t="n">
-        <v>3666.318704890286</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X11" t="n">
-        <v>3254.598706058034</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y11" t="n">
-        <v>2849.261436012924</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>100.0769448789901</v>
       </c>
       <c r="I12" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J12" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="K12" t="n">
-        <v>100.0769448789901</v>
+        <v>698.0085144092415</v>
       </c>
       <c r="L12" t="n">
-        <v>100.0769448789901</v>
+        <v>698.0085144092415</v>
       </c>
       <c r="M12" t="n">
-        <v>100.0769448789901</v>
+        <v>698.0085144092415</v>
       </c>
       <c r="N12" t="n">
-        <v>1019.283297448028</v>
+        <v>698.0085144092415</v>
       </c>
       <c r="O12" t="n">
-        <v>1908.7645754595</v>
+        <v>698.0085144092415</v>
       </c>
       <c r="P12" t="n">
-        <v>1908.7645754595</v>
+        <v>1414.206231447739</v>
       </c>
       <c r="Q12" t="n">
-        <v>1908.7645754595</v>
+        <v>1878.351708310519</v>
       </c>
       <c r="R12" t="n">
         <v>1908.7645754595</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1183.258067403227</v>
+        <v>371.8180762597981</v>
       </c>
       <c r="C13" t="n">
-        <v>1011.285504282143</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="D13" t="n">
-        <v>847.9687314089136</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="E13" t="n">
-        <v>681.7605255617672</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="F13" t="n">
-        <v>509.8987513363276</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="G13" t="n">
-        <v>343.6417816305598</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="H13" t="n">
         <v>199.8455131387141</v>
@@ -5223,28 +5223,28 @@
         <v>2280.489972292118</v>
       </c>
       <c r="R13" t="n">
-        <v>2233.451358979291</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S13" t="n">
-        <v>2233.451358979291</v>
+        <v>2110.354924811253</v>
       </c>
       <c r="T13" t="n">
-        <v>2233.451358979291</v>
+        <v>1867.015577037153</v>
       </c>
       <c r="U13" t="n">
-        <v>2233.451358979291</v>
+        <v>1586.831128537457</v>
       </c>
       <c r="V13" t="n">
-        <v>2117.183104807232</v>
+        <v>1305.119661145486</v>
       </c>
       <c r="W13" t="n">
-        <v>1842.330700979745</v>
+        <v>1030.267257317999</v>
       </c>
       <c r="X13" t="n">
-        <v>1599.766804425551</v>
+        <v>787.7033607638042</v>
       </c>
       <c r="Y13" t="n">
-        <v>1373.424036115293</v>
+        <v>561.9840449718638</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2533.780365848253</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C14" t="n">
-        <v>2106.879635861554</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D14" t="n">
-        <v>1683.587015046554</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E14" t="n">
-        <v>1257.610075194411</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F14" t="n">
-        <v>832.4858933838116</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G14" t="n">
         <v>432.8421946614841</v>
@@ -5281,7 +5281,7 @@
         <v>100.0769448789901</v>
       </c>
       <c r="K14" t="n">
-        <v>815.5852528544891</v>
+        <v>540.2611071157288</v>
       </c>
       <c r="L14" t="n">
         <v>1469.886154735005</v>
@@ -5308,22 +5308,22 @@
         <v>5003.847243949504</v>
       </c>
       <c r="T14" t="n">
-        <v>4782.921672994137</v>
+        <v>4787.617036682362</v>
       </c>
       <c r="U14" t="n">
-        <v>4524.566763590549</v>
+        <v>4529.262127278774</v>
       </c>
       <c r="V14" t="n">
-        <v>4167.077348716799</v>
+        <v>4171.772712405023</v>
       </c>
       <c r="W14" t="n">
-        <v>3770.685999017146</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X14" t="n">
-        <v>3358.966000184893</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y14" t="n">
-        <v>2953.628730139784</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="15">
@@ -5357,28 +5357,28 @@
         <v>100.0769448789901</v>
       </c>
       <c r="J15" t="n">
-        <v>371.7744341585812</v>
+        <v>137.9364549898829</v>
       </c>
       <c r="K15" t="n">
-        <v>371.7744341585812</v>
+        <v>728.4213815582225</v>
       </c>
       <c r="L15" t="n">
-        <v>371.7744341585812</v>
+        <v>728.4213815582225</v>
       </c>
       <c r="M15" t="n">
-        <v>371.7744341585812</v>
+        <v>728.4213815582225</v>
       </c>
       <c r="N15" t="n">
-        <v>1362.599788512017</v>
+        <v>728.4213815582225</v>
       </c>
       <c r="O15" t="n">
-        <v>1362.599788512017</v>
+        <v>728.4213815582225</v>
       </c>
       <c r="P15" t="n">
-        <v>1362.599788512017</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="Q15" t="n">
-        <v>1826.745265374797</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R15" t="n">
         <v>1908.7645754595</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1183.258067403227</v>
+        <v>561.3605924535462</v>
       </c>
       <c r="C16" t="n">
-        <v>1011.285504282143</v>
+        <v>389.3880293324622</v>
       </c>
       <c r="D16" t="n">
-        <v>847.9687314089136</v>
+        <v>389.3880293324622</v>
       </c>
       <c r="E16" t="n">
-        <v>681.7605255617672</v>
+        <v>223.1798234853158</v>
       </c>
       <c r="F16" t="n">
-        <v>509.8987513363276</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="G16" t="n">
-        <v>343.6417816305598</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H16" t="n">
-        <v>199.8455131387141</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I16" t="n">
         <v>100.0769448789901</v>
@@ -5463,25 +5463,25 @@
         <v>2280.489972292118</v>
       </c>
       <c r="S16" t="n">
-        <v>2280.489972292118</v>
+        <v>2110.354924811253</v>
       </c>
       <c r="T16" t="n">
-        <v>2280.489972292118</v>
+        <v>1867.015577037153</v>
       </c>
       <c r="U16" t="n">
-        <v>2280.489972292118</v>
+        <v>1586.831128537457</v>
       </c>
       <c r="V16" t="n">
-        <v>2117.183104807232</v>
+        <v>1305.119661145486</v>
       </c>
       <c r="W16" t="n">
-        <v>1842.330700979745</v>
+        <v>1030.267257317999</v>
       </c>
       <c r="X16" t="n">
-        <v>1599.766804425551</v>
+        <v>787.7033607638042</v>
       </c>
       <c r="Y16" t="n">
-        <v>1373.424036115293</v>
+        <v>561.3605924535462</v>
       </c>
     </row>
     <row r="17">
@@ -5518,22 +5518,22 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>1180.414480198223</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L17" t="n">
-        <v>2110.0395278175</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M17" t="n">
-        <v>3114.325629236558</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N17" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O17" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P17" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q17" t="n">
         <v>4997.579335409525</v>
@@ -5542,16 +5542,16 @@
         <v>5115.135670291427</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W17" t="n">
         <v>3777.607131232208</v>
@@ -5591,31 +5591,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L18" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M18" t="n">
-        <v>1158.289251381874</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N18" t="n">
-        <v>1158.289251381874</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q18" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R18" t="n">
         <v>1910.990343986338</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>965.4234913008104</v>
+        <v>941.9189991784958</v>
       </c>
       <c r="C19" t="n">
-        <v>793.4509281797264</v>
+        <v>769.9464360574118</v>
       </c>
       <c r="D19" t="n">
-        <v>630.1341553064971</v>
+        <v>606.6296631841825</v>
       </c>
       <c r="E19" t="n">
-        <v>463.9259494593506</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F19" t="n">
-        <v>463.9259494593506</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
@@ -5697,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2235.67712750613</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T19" t="n">
-        <v>1992.33777973203</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U19" t="n">
-        <v>1712.153331232334</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="V19" t="n">
-        <v>1430.441863840363</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="W19" t="n">
-        <v>1155.589460012876</v>
+        <v>1600.991632755014</v>
       </c>
       <c r="X19" t="n">
-        <v>1155.589460012876</v>
+        <v>1358.427736200819</v>
       </c>
       <c r="Y19" t="n">
-        <v>1155.589460012876</v>
+        <v>1132.084967890562</v>
       </c>
     </row>
     <row r="20">
@@ -5752,25 +5752,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1031.927761025105</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2036.213862444163</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N20" t="n">
-        <v>3012.464920930865</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
-        <v>3857.609571081677</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>4565.888850239604</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
         <v>4997.579335409525</v>
@@ -5828,31 +5828,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M21" t="n">
-        <v>1158.289251381874</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N21" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O21" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P21" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>326.3817789554925</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C22" t="n">
-        <v>154.4092158344085</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="D22" t="n">
-        <v>102.3027134058285</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="E22" t="n">
-        <v>102.3027134058285</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="F22" t="n">
-        <v>102.3027134058285</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="G22" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H22" t="n">
         <v>102.3027134058285</v>
@@ -5934,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T22" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U22" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V22" t="n">
-        <v>1260.306816359498</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W22" t="n">
-        <v>985.454412532011</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X22" t="n">
-        <v>742.8905159778161</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y22" t="n">
-        <v>516.5477476675582</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>533.9931985757493</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1463.618246195026</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2467.904347614084</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N23" t="n">
-        <v>3444.155406100785</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O23" t="n">
-        <v>4289.300056251597</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="P23" t="n">
-        <v>4997.579335409525</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q23" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6071,25 +6071,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="M24" t="n">
-        <v>821.6753975134684</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C25" t="n">
-        <v>1013.511272808982</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D25" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E25" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
@@ -6174,25 +6174,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T25" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U25" t="n">
-        <v>2282.715740818957</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V25" t="n">
-        <v>2001.004273426986</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W25" t="n">
-        <v>1844.556469506584</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X25" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y25" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="26">
@@ -6226,28 +6226,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291427</v>
+        <v>4639.71451561294</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>5095.799995117123</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6302,31 +6302,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N27" t="n">
-        <v>1191.617659878699</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1185.483835930065</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="C28" t="n">
-        <v>1013.511272808982</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="D28" t="n">
-        <v>850.1944999357522</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="E28" t="n">
-        <v>683.9862940886057</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="F28" t="n">
         <v>512.1245198631661</v>
@@ -6411,25 +6411,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T28" t="n">
-        <v>2282.715740818957</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U28" t="n">
-        <v>2282.715740818957</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V28" t="n">
-        <v>2001.004273426986</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W28" t="n">
-        <v>1844.556469506584</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X28" t="n">
-        <v>1601.992572952389</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y28" t="n">
-        <v>1375.649804642131</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6451,13 +6451,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
@@ -6466,13 +6466,13 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>1007.532766690843</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1007.532766690843</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2011.818868109901</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N29" t="n">
         <v>2988.069926596602</v>
@@ -6490,10 +6490,10 @@
         <v>5115.135670291427</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T29" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U29" t="n">
         <v>4531.487895805612</v>
@@ -6539,31 +6539,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L30" t="n">
-        <v>821.6753975134684</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M30" t="n">
-        <v>821.6753975134684</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3158.801708427964</v>
+        <v>374.0438447866366</v>
       </c>
       <c r="C31" t="n">
-        <v>3100.930848725445</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="D31" t="n">
-        <v>3100.930848725445</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="E31" t="n">
-        <v>2934.722642878299</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="F31" t="n">
-        <v>2934.722642878299</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="G31" t="n">
-        <v>2934.722642878299</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H31" t="n">
-        <v>2934.722642878299</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I31" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K31" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L31" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M31" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N31" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O31" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P31" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q31" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>4897.962009497735</v>
+        <v>2113.204145856409</v>
       </c>
       <c r="T31" t="n">
-        <v>4654.622661723635</v>
+        <v>1869.864798082309</v>
       </c>
       <c r="U31" t="n">
-        <v>4374.43821322394</v>
+        <v>1589.680349582613</v>
       </c>
       <c r="V31" t="n">
-        <v>4092.726745831969</v>
+        <v>1307.968882190642</v>
       </c>
       <c r="W31" t="n">
-        <v>3817.874342004482</v>
+        <v>1033.116478363155</v>
       </c>
       <c r="X31" t="n">
-        <v>3575.310445450287</v>
+        <v>790.5525818089602</v>
       </c>
       <c r="Y31" t="n">
-        <v>3348.967677140029</v>
+        <v>564.2098134987023</v>
       </c>
     </row>
     <row r="32">
@@ -6700,28 +6700,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N32" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O32" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6776,31 +6776,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M33" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N33" t="n">
-        <v>1021.509065974867</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q33" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R33" t="n">
         <v>1910.990343986338</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3205.84032174079</v>
+        <v>786.8947875232845</v>
       </c>
       <c r="C34" t="n">
-        <v>3033.867758619706</v>
+        <v>614.9222244022005</v>
       </c>
       <c r="D34" t="n">
-        <v>2934.722642878299</v>
+        <v>614.9222244022005</v>
       </c>
       <c r="E34" t="n">
-        <v>2934.722642878299</v>
+        <v>448.7140185550541</v>
       </c>
       <c r="F34" t="n">
-        <v>2934.722642878299</v>
+        <v>276.8522443296145</v>
       </c>
       <c r="G34" t="n">
-        <v>2934.722642878299</v>
+        <v>276.8522443296145</v>
       </c>
       <c r="H34" t="n">
-        <v>2934.722642878299</v>
+        <v>133.0559758377688</v>
       </c>
       <c r="I34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K34" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L34" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M34" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N34" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O34" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P34" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q34" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>4945.000622810562</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T34" t="n">
-        <v>4701.661275036462</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U34" t="n">
-        <v>4421.476826536767</v>
+        <v>2002.531292319261</v>
       </c>
       <c r="V34" t="n">
-        <v>4139.765359144795</v>
+        <v>1720.81982492729</v>
       </c>
       <c r="W34" t="n">
-        <v>3864.912955317308</v>
+        <v>1445.967421099803</v>
       </c>
       <c r="X34" t="n">
-        <v>3622.349058763114</v>
+        <v>1203.403524545608</v>
       </c>
       <c r="Y34" t="n">
-        <v>3396.006290452855</v>
+        <v>977.0607562353503</v>
       </c>
     </row>
     <row r="35">
@@ -6940,25 +6940,25 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>903.7433331113961</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1833.368380730673</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2837.654482149731</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N35" t="n">
-        <v>3813.905540636432</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O35" t="n">
-        <v>4659.050190787244</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P35" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R35" t="n">
         <v>5115.135670291427</v>
@@ -7013,31 +7013,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K36" t="n">
-        <v>357.5299206506891</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L36" t="n">
-        <v>357.5299206506891</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M36" t="n">
-        <v>357.5299206506891</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N36" t="n">
-        <v>1446.844867123559</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O36" t="n">
-        <v>1446.844867123559</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P36" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>786.8947875232845</v>
+        <v>655.1318596602905</v>
       </c>
       <c r="C37" t="n">
-        <v>614.9222244022005</v>
+        <v>483.1592965392065</v>
       </c>
       <c r="D37" t="n">
-        <v>451.6054515289712</v>
+        <v>483.1592965392065</v>
       </c>
       <c r="E37" t="n">
-        <v>285.3972456818248</v>
+        <v>316.95109069206</v>
       </c>
       <c r="F37" t="n">
-        <v>113.5354714563852</v>
+        <v>145.0893164666204</v>
       </c>
       <c r="G37" t="n">
         <v>102.3027134058285</v>
@@ -7122,25 +7122,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T37" t="n">
-        <v>2282.715740818957</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U37" t="n">
-        <v>2002.531292319261</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V37" t="n">
-        <v>1720.81982492729</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="W37" t="n">
-        <v>1445.967421099803</v>
+        <v>1314.204493236809</v>
       </c>
       <c r="X37" t="n">
-        <v>1203.403524545608</v>
+        <v>1071.640596682614</v>
       </c>
       <c r="Y37" t="n">
-        <v>977.0607562353503</v>
+        <v>845.2978283723562</v>
       </c>
     </row>
     <row r="38">
@@ -7183,19 +7183,19 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>3114.325629236558</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N38" t="n">
-        <v>4090.576687723259</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O38" t="n">
-        <v>4935.721337874071</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P38" t="n">
-        <v>4997.579335409525</v>
+        <v>4639.71451561294</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409525</v>
+        <v>5095.799995117123</v>
       </c>
       <c r="R38" t="n">
         <v>5115.135670291427</v>
@@ -7250,28 +7250,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L39" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M39" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N39" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O39" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P39" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q39" t="n">
         <v>1910.990343986338</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>326.3817789554925</v>
+        <v>653.604840768015</v>
       </c>
       <c r="C40" t="n">
-        <v>154.4092158344085</v>
+        <v>653.604840768015</v>
       </c>
       <c r="D40" t="n">
-        <v>102.3027134058285</v>
+        <v>653.604840768015</v>
       </c>
       <c r="E40" t="n">
-        <v>102.3027134058285</v>
+        <v>653.604840768015</v>
       </c>
       <c r="F40" t="n">
-        <v>102.3027134058285</v>
+        <v>481.7430665425754</v>
       </c>
       <c r="G40" t="n">
-        <v>102.3027134058285</v>
+        <v>315.4860968368076</v>
       </c>
       <c r="H40" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
@@ -7356,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T40" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U40" t="n">
-        <v>1542.018283751469</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="V40" t="n">
-        <v>1260.306816359498</v>
+        <v>1587.529878172021</v>
       </c>
       <c r="W40" t="n">
-        <v>985.454412532011</v>
+        <v>1312.677474344533</v>
       </c>
       <c r="X40" t="n">
-        <v>742.8905159778161</v>
+        <v>1070.113577790339</v>
       </c>
       <c r="Y40" t="n">
-        <v>516.5477476675582</v>
+        <v>843.7708094800807</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2538.475729536478</v>
+        <v>2503.578858279949</v>
       </c>
       <c r="C41" t="n">
-        <v>2111.574999549778</v>
+        <v>2076.678128293249</v>
       </c>
       <c r="D41" t="n">
-        <v>1688.282378734778</v>
+        <v>1653.385507478249</v>
       </c>
       <c r="E41" t="n">
-        <v>1262.305438882635</v>
+        <v>1227.408567626107</v>
       </c>
       <c r="F41" t="n">
-        <v>837.1812570720355</v>
+        <v>802.2843858155067</v>
       </c>
       <c r="G41" t="n">
-        <v>432.8421946614841</v>
+        <v>397.9453234049553</v>
       </c>
       <c r="H41" t="n">
-        <v>134.9738161355189</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I41" t="n">
         <v>100.0769448789901</v>
       </c>
       <c r="J41" t="n">
-        <v>100.0769448789901</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K41" t="n">
-        <v>540.2611071157288</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L41" t="n">
-        <v>1469.886154735005</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M41" t="n">
-        <v>2474.172256154064</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="N41" t="n">
-        <v>3450.423314640765</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O41" t="n">
-        <v>4295.567964791577</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P41" t="n">
-        <v>5003.847243949504</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q41" t="n">
-        <v>5003.847243949504</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R41" t="n">
         <v>5003.847243949504</v>
       </c>
       <c r="S41" t="n">
-        <v>5003.847243949504</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T41" t="n">
-        <v>4787.617036682362</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U41" t="n">
-        <v>4529.262127278774</v>
+        <v>4494.365256022244</v>
       </c>
       <c r="V41" t="n">
-        <v>4171.772712405023</v>
+        <v>4136.875841148494</v>
       </c>
       <c r="W41" t="n">
-        <v>3775.38136270537</v>
+        <v>3740.484491448841</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.661363873117</v>
+        <v>3328.764492616588</v>
       </c>
       <c r="Y41" t="n">
-        <v>2958.324093828008</v>
+        <v>2923.427222571479</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>100.0769448789901</v>
       </c>
       <c r="I42" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J42" t="n">
-        <v>100.0769448789901</v>
+        <v>379.221077120493</v>
       </c>
       <c r="K42" t="n">
-        <v>100.0769448789901</v>
+        <v>646.4020714735193</v>
       </c>
       <c r="L42" t="n">
-        <v>100.0769448789901</v>
+        <v>646.4020714735193</v>
       </c>
       <c r="M42" t="n">
-        <v>819.4496289866299</v>
+        <v>646.4020714735193</v>
       </c>
       <c r="N42" t="n">
-        <v>1908.7645754595</v>
+        <v>646.4020714735193</v>
       </c>
       <c r="O42" t="n">
-        <v>1908.7645754595</v>
+        <v>646.4020714735193</v>
       </c>
       <c r="P42" t="n">
-        <v>1908.7645754595</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="Q42" t="n">
-        <v>1908.7645754595</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="R42" t="n">
         <v>1908.7645754595</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>324.1560104286538</v>
+        <v>443.9112822255137</v>
       </c>
       <c r="C43" t="n">
-        <v>152.1834473075698</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="D43" t="n">
-        <v>100.0769448789901</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="E43" t="n">
-        <v>100.0769448789901</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="F43" t="n">
         <v>100.0769448789901</v>
@@ -7593,28 +7593,28 @@
         <v>2280.489972292118</v>
       </c>
       <c r="R43" t="n">
-        <v>2233.451358979291</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S43" t="n">
-        <v>2063.316311498426</v>
+        <v>2183.071583295286</v>
       </c>
       <c r="T43" t="n">
-        <v>1819.976963724326</v>
+        <v>1939.732235521186</v>
       </c>
       <c r="U43" t="n">
-        <v>1539.792515224631</v>
+        <v>1659.54778702149</v>
       </c>
       <c r="V43" t="n">
-        <v>1258.081047832659</v>
+        <v>1377.836319629519</v>
       </c>
       <c r="W43" t="n">
-        <v>983.2286440051723</v>
+        <v>1102.983915802032</v>
       </c>
       <c r="X43" t="n">
-        <v>740.6647474509774</v>
+        <v>860.4200192478372</v>
       </c>
       <c r="Y43" t="n">
-        <v>514.3219791407195</v>
+        <v>634.0772509375793</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2538.475729536478</v>
+        <v>2429.413071721394</v>
       </c>
       <c r="C44" t="n">
-        <v>2111.574999549778</v>
+        <v>2002.512341734694</v>
       </c>
       <c r="D44" t="n">
-        <v>1688.282378734778</v>
+        <v>1579.219720919694</v>
       </c>
       <c r="E44" t="n">
-        <v>1262.305438882635</v>
+        <v>1153.242781067552</v>
       </c>
       <c r="F44" t="n">
-        <v>837.1812570720355</v>
+        <v>728.1185992569519</v>
       </c>
       <c r="G44" t="n">
-        <v>432.8421946614841</v>
+        <v>323.7795368464006</v>
       </c>
       <c r="H44" t="n">
-        <v>134.9738161355189</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I44" t="n">
         <v>100.0769448789901</v>
@@ -7657,19 +7657,19 @@
         <v>2107.813759290661</v>
       </c>
       <c r="M44" t="n">
-        <v>3112.09986070972</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="N44" t="n">
-        <v>4088.350919196421</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O44" t="n">
-        <v>4933.495569347233</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P44" t="n">
-        <v>4933.495569347233</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q44" t="n">
-        <v>5003.847243949504</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R44" t="n">
         <v>5003.847243949504</v>
@@ -7690,10 +7690,10 @@
         <v>3666.318704890286</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.661363873117</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y44" t="n">
-        <v>2958.324093828008</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>100.0769448789901</v>
       </c>
       <c r="I45" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J45" t="n">
-        <v>371.7744341585812</v>
+        <v>379.221077120493</v>
       </c>
       <c r="K45" t="n">
-        <v>371.7744341585812</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="L45" t="n">
-        <v>371.7744341585812</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="M45" t="n">
-        <v>1427.760972134626</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="N45" t="n">
-        <v>1427.760972134626</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="O45" t="n">
-        <v>1427.760972134626</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="P45" t="n">
-        <v>1908.7645754595</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="Q45" t="n">
-        <v>1908.7645754595</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="R45" t="n">
         <v>1908.7645754595</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>371.1946237414806</v>
+        <v>443.9112822255137</v>
       </c>
       <c r="C46" t="n">
-        <v>199.2220606203966</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="D46" t="n">
-        <v>199.2220606203966</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="E46" t="n">
-        <v>199.2220606203966</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="F46" t="n">
         <v>100.0769448789901</v>
@@ -7833,25 +7833,25 @@
         <v>2280.489972292118</v>
       </c>
       <c r="S46" t="n">
-        <v>2110.354924811253</v>
+        <v>2183.071583295286</v>
       </c>
       <c r="T46" t="n">
-        <v>1867.015577037153</v>
+        <v>1939.732235521186</v>
       </c>
       <c r="U46" t="n">
-        <v>1586.831128537457</v>
+        <v>1659.54778702149</v>
       </c>
       <c r="V46" t="n">
-        <v>1305.119661145486</v>
+        <v>1377.836319629519</v>
       </c>
       <c r="W46" t="n">
-        <v>1030.267257317999</v>
+        <v>1102.983915802032</v>
       </c>
       <c r="X46" t="n">
-        <v>787.7033607638042</v>
+        <v>860.4200192478372</v>
       </c>
       <c r="Y46" t="n">
-        <v>561.3605924535462</v>
+        <v>634.0772509375793</v>
       </c>
     </row>
   </sheetData>
@@ -7978,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>591.9924139104035</v>
+        <v>180.0440798263965</v>
       </c>
       <c r="L2" t="n">
         <v>594.539855548217</v>
       </c>
       <c r="M2" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>571.0335849150666</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P2" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,13 +8054,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>578.6270469489275</v>
+        <v>454.9370402678085</v>
       </c>
       <c r="L3" t="n">
         <v>22.51508671422956</v>
@@ -8072,7 +8072,7 @@
         <v>577.5708413291358</v>
       </c>
       <c r="O3" t="n">
-        <v>181.4456529820153</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
         <v>577.9986543204228</v>
@@ -8157,7 +8157,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.9025226039384</v>
+        <v>152.9025226039392</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>86.02369229001789</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O5" t="n">
         <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>451.134864077236</v>
       </c>
       <c r="R5" t="n">
         <v>153.7764225027789</v>
@@ -8294,28 +8294,28 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>90.41920043198729</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>579.3997028378163</v>
+        <v>460.2559062950365</v>
       </c>
       <c r="P6" t="n">
         <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
         <v>106.5207073584907</v>
@@ -8394,7 +8394,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
-        <v>152.9025226039392</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8455,25 +8455,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>180.0440798263965</v>
       </c>
       <c r="L8" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>86.17533235500369</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
         <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
         <v>153.7764225027789</v>
@@ -8528,31 +8528,31 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>459.4832504061476</v>
       </c>
       <c r="L9" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>380.3086605601453</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
         <v>106.5207073584907</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
         <v>758.5002654165255</v>
@@ -8698,19 +8698,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>1023.391803124043</v>
+        <v>814.0147147172921</v>
       </c>
       <c r="O11" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>492.957169079497</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
         <v>153.7764225027789</v>
@@ -8765,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
         <v>22.51508671422956</v>
@@ -8780,19 +8780,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>949.8342934347922</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>54.39298722139783</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8929,10 +8929,10 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K14" t="n">
-        <v>758.5002654165255</v>
+        <v>480.395067700606</v>
       </c>
       <c r="L14" t="n">
-        <v>699.2220443321344</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
         <v>1051.861668373228</v>
@@ -9005,10 +9005,10 @@
         <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>295.0530226965566</v>
+        <v>58.85304373827559</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
         <v>22.51508671422956</v>
@@ -9017,19 +9017,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>1022.176719479639</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q15" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9166,10 +9166,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L17" t="n">
-        <v>977.3272420480539</v>
+        <v>586.4197136125407</v>
       </c>
       <c r="M17" t="n">
         <v>1051.861668373228</v>
@@ -9181,10 +9181,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>100.0581876036193</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
         <v>153.7764225027789</v>
@@ -9239,34 +9239,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>783.4760236661258</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,19 +9400,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
@@ -9421,7 +9421,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>472.1756697257304</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
         <v>153.7764225027789</v>
@@ -9476,22 +9476,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
-        <v>22.51508671422956</v>
+        <v>419.3774956265374</v>
       </c>
       <c r="M21" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>312.8133471445368</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
@@ -9503,7 +9503,7 @@
         <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,10 +9637,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>471.8155959159414</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
         <v>977.3272420480539</v>
@@ -9652,16 +9652,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O23" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P23" t="n">
-        <v>753.0089771212694</v>
+        <v>611.7910214708227</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9719,28 +9719,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>446.7430431677336</v>
       </c>
       <c r="M24" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q24" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
@@ -9883,7 +9883,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N26" t="n">
         <v>1023.391803124043</v>
@@ -9892,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>54.56363491934598</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
         <v>22.51508671422956</v>
@@ -9965,19 +9965,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>749.810964578424</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10114,16 +10114,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
-        <v>583.8722719747271</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N29" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O29" t="n">
         <v>891.0724241548241</v>
@@ -10187,34 +10187,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
-        <v>749.1541615704315</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10357,22 +10357,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N32" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O32" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
         <v>22.51508671422956</v>
@@ -10439,19 +10439,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>949.8342934347922</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10588,28 +10588,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>479.0344602783164</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N35" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>280.2044936766268</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
@@ -10676,19 +10676,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q36" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
         <v>1023.391803124043</v>
@@ -10840,13 +10840,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>100.0581876036193</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>153.7764225027789</v>
+        <v>54.56363491934598</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,22 +10898,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M39" t="n">
-        <v>1089.749849175</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N39" t="n">
-        <v>312.8133471445368</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
@@ -10922,7 +10922,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
         <v>23.67291939414415</v>
@@ -11059,19 +11059,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>480.395067700606</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
-        <v>1023.391803124043</v>
+        <v>814.0147147172921</v>
       </c>
       <c r="O41" t="n">
         <v>891.0724241548241</v>
@@ -11080,10 +11080,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,34 +11135,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>292.2790261091174</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,22 +11305,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>1023.391803124043</v>
+        <v>814.0147147172921</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>107.1869721826501</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,19 +11372,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
         <v>21.34302821354166</v>
@@ -11393,13 +11393,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>507.6330667855089</v>
+        <v>418.6332501171364</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23263,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>107.9720312369328</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23317,7 +23317,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>107.9720312369334</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23421,19 +23421,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>163.7887810877128</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>0.6172179931344033</v>
       </c>
     </row>
     <row r="14">
@@ -23509,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.648410051341671</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23548,7 +23548,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>4.64841005134187</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>48.27130666292275</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,16 +23703,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23901,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>47.71658469977734</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>6.536664108324487</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24129,10 +24129,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>110.0981677402028</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
@@ -24141,10 +24141,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>38.54620374177151</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>98.77088257712678</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,19 +24414,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>71.98949189919222</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>137.3170863188984</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24651,19 +24651,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24840,13 +24840,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.96068638438</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
@@ -24858,7 +24858,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>0.6172179931341191</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>63.52994056050392</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>68.32515276950589</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,10 +25125,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25326,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>153.4739695386591</v>
+        <v>122.2356629785262</v>
       </c>
       <c r="H37" t="n">
         <v>142.3583058069271</v>
@@ -25362,16 +25362,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>110.0981677402028</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>30.07763878738471</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>4.64841005134187</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>73.42412869296905</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>110.0981677402031</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>164.5944000087102</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>73.42412869296919</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25930,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>107.9720312369328</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26034,7 +26034,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>71.98949189919274</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>164.5944000087102</v>
@@ -26073,7 +26073,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>707457.6174715059</v>
+        <v>707457.6174715058</v>
       </c>
     </row>
     <row r="6">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>718446.2372370806</v>
+        <v>718446.2372370805</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>718446.2372370806</v>
+        <v>718446.2372370805</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>718446.2372370806</v>
+        <v>718446.2372370805</v>
       </c>
     </row>
     <row r="14">
@@ -26316,7 +26316,7 @@
         <v>378587.7342072559</v>
       </c>
       <c r="C2" t="n">
-        <v>378587.734207256</v>
+        <v>378587.7342072561</v>
       </c>
       <c r="D2" t="n">
         <v>378587.7342072561</v>
@@ -26325,28 +26325,28 @@
         <v>359733.2891431418</v>
       </c>
       <c r="F2" t="n">
-        <v>359733.2891431418</v>
+        <v>359733.2891431419</v>
       </c>
       <c r="G2" t="n">
+        <v>365319.7620393409</v>
+      </c>
+      <c r="H2" t="n">
         <v>365319.7620393408</v>
-      </c>
-      <c r="H2" t="n">
-        <v>365319.7620393409</v>
       </c>
       <c r="I2" t="n">
         <v>365319.7620393407</v>
       </c>
       <c r="J2" t="n">
-        <v>365319.7620393406</v>
+        <v>365319.7620393407</v>
       </c>
       <c r="K2" t="n">
-        <v>365319.7620393409</v>
+        <v>365319.7620393407</v>
       </c>
       <c r="L2" t="n">
         <v>365319.7620393407</v>
       </c>
       <c r="M2" t="n">
-        <v>365319.7620393407</v>
+        <v>365319.7620393408</v>
       </c>
       <c r="N2" t="n">
         <v>365319.7620393407</v>
@@ -26355,7 +26355,7 @@
         <v>359733.2891431419</v>
       </c>
       <c r="P2" t="n">
-        <v>359733.2891431418</v>
+        <v>359733.2891431419</v>
       </c>
     </row>
     <row r="3">
@@ -26426,7 +26426,7 @@
         <v>199866.3919893415</v>
       </c>
       <c r="E4" t="n">
-        <v>99465.11171784476</v>
+        <v>99465.11171784473</v>
       </c>
       <c r="F4" t="n">
         <v>99465.11171784473</v>
@@ -26456,7 +26456,7 @@
         <v>101012.8540458319</v>
       </c>
       <c r="O4" t="n">
-        <v>99465.11171784475</v>
+        <v>99465.11171784473</v>
       </c>
       <c r="P4" t="n">
         <v>99465.11171784473</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-75129.64223425099</v>
+        <v>-75129.64223425096</v>
       </c>
       <c r="C6" t="n">
         <v>111275.0911804864</v>
       </c>
       <c r="D6" t="n">
-        <v>111275.0911804865</v>
+        <v>111275.0911804864</v>
       </c>
       <c r="E6" t="n">
-        <v>-23222.58829929639</v>
+        <v>-23295.10539569674</v>
       </c>
       <c r="F6" t="n">
-        <v>184209.6993172646</v>
+        <v>184137.1822208643</v>
       </c>
       <c r="G6" t="n">
-        <v>178931.2237215978</v>
+        <v>178880.1930594136</v>
       </c>
       <c r="H6" t="n">
-        <v>186556.8458050793</v>
+        <v>186505.815142895</v>
       </c>
       <c r="I6" t="n">
-        <v>186556.8458050792</v>
+        <v>186505.8151428949</v>
       </c>
       <c r="J6" t="n">
-        <v>41023.17587026261</v>
+        <v>40972.14520807839</v>
       </c>
       <c r="K6" t="n">
-        <v>186556.8458050793</v>
+        <v>186505.8151428949</v>
       </c>
       <c r="L6" t="n">
-        <v>186556.8458050792</v>
+        <v>186505.8151428949</v>
       </c>
       <c r="M6" t="n">
-        <v>13426.35459943966</v>
+        <v>13375.32393725541</v>
       </c>
       <c r="N6" t="n">
-        <v>186556.8458050792</v>
+        <v>186505.8151428949</v>
       </c>
       <c r="O6" t="n">
-        <v>184209.6993172647</v>
+        <v>184137.1822208643</v>
       </c>
       <c r="P6" t="n">
-        <v>184209.6993172646</v>
+        <v>184137.1822208643</v>
       </c>
     </row>
   </sheetData>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
         <v>400</v>
       </c>
-      <c r="C2" t="n">
-        <v>331.3947386960821</v>
-      </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27396,10 +27396,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27438,13 +27438,13 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>245.3945739651546</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>159.2730340346747</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,16 +27587,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>194.6327161857776</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>245.3945739651544</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>400</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
         <v>34.5479025439635</v>
@@ -27681,10 +27681,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>350.5048792244489</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>170.523817295557</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>59.37454630891094</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27858,7 +27858,7 @@
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>192.9519787292743</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>342.9323154271057</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
         <v>400</v>
@@ -28016,13 +28016,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>110.0981677402031</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
         <v>164.5944000087102</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>229.7855238263084</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>556.2278131155941</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="L2" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="N2" t="n">
-        <v>533.7539620806206</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,13 +34774,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>556.2278131155941</v>
+        <v>432.5378064344752</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34792,7 +34792,7 @@
         <v>556.2278131155941</v>
       </c>
       <c r="O3" t="n">
-        <v>158.2737632597931</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>556.2278131155941</v>
@@ -34877,7 +34877,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391542</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="M5" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="N5" t="n">
-        <v>48.74406945557187</v>
       </c>
       <c r="O5" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>415.010189472638</v>
       </c>
       <c r="R5" t="n">
         <v>118.7437726079824</v>
@@ -35014,28 +35014,28 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>67.90411371775774</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>556.2278131155941</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="P6" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
         <v>82.84778796434657</v>
@@ -35114,7 +35114,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
-        <v>128.2829598391542</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,25 +35175,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="L8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>48.74406945557187</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
         <v>118.7437726079824</v>
@@ -35248,31 +35248,31 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>357.2118800478173</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="O9" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
         <v>82.84778796434657</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
         <v>722.7356646217162</v>
@@ -35418,19 +35418,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>986.1121802895968</v>
+        <v>776.7350918828461</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>456.832494474899</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
         <v>118.7437726079824</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35500,19 +35500,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>30.72006782725369</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35649,10 +35649,10 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>722.7356646217162</v>
+        <v>444.6304669057967</v>
       </c>
       <c r="L14" t="n">
-        <v>660.9100018995115</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
         <v>1014.430405473796</v>
@@ -35725,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>274.4419083632233</v>
+        <v>38.24192940494225</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35737,19 +35737,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1000.833691266097</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q15" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35886,10 +35886,10 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>939.015199615431</v>
+        <v>548.1076711799178</v>
       </c>
       <c r="M17" t="n">
         <v>1014.430405473796</v>
@@ -35901,10 +35901,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>62.48282579338804</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
         <v>118.7437726079824</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
@@ -36141,7 +36141,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>436.0509951211323</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
         <v>118.7437726079824</v>
@@ -36196,22 +36196,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="M21" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>291.4703189309951</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36223,7 +36223,7 @@
         <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,10 +36357,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
-        <v>436.0509951211321</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L23" t="n">
         <v>939.015199615431</v>
@@ -36372,16 +36372,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O23" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>715.433615311038</v>
+        <v>574.2156596605913</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,28 +36439,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>424.2279564535041</v>
       </c>
       <c r="M24" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
@@ -36603,7 +36603,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>986.1121802895968</v>
@@ -36612,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>19.53098502454951</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36685,19 +36685,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>726.6390748562018</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36834,16 +36834,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
-        <v>548.1076711799178</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O29" t="n">
         <v>853.6814647988001</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37077,22 +37077,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O32" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37159,19 +37159,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37308,28 +37308,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>443.269859483507</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N35" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>257.8052598432935</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37396,19 +37396,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q36" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>986.1121802895968</v>
@@ -37560,13 +37560,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>62.48282579338804</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>118.7437726079824</v>
+        <v>19.53098502454951</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,22 +37618,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M39" t="n">
-        <v>1066.653068662672</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N39" t="n">
-        <v>291.4703189309951</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37642,7 +37642,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>444.6304669057967</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>986.1121802895968</v>
+        <v>776.7350918828461</v>
       </c>
       <c r="O41" t="n">
         <v>853.6814647988001</v>
@@ -37800,10 +37800,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>269.8797922757841</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38025,22 +38025,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>986.1121802895968</v>
+        <v>776.7350918828461</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>71.06229757805201</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,19 +38092,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -38113,13 +38113,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>485.8622255806802</v>
+        <v>396.8624089123077</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
